--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2940348.677641581</v>
+        <v>2927500.799015781</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417493.279570685</v>
+        <v>419412.3690447889</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3074734.026778032</v>
+        <v>3074734.026778033</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -670,10 +670,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>87.01058797605843</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>110.7797531617237</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -740,7 +740,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>140.0646232303525</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -749,13 +749,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>115.3219311376238</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -800,10 +800,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.480376214104</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>12.73108622777676</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>118.838033150665</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>121.5789354633579</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -995,7 +995,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>10.09209246479641</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>27.29936255381426</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7420538716369</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>238.4871328263313</v>
       </c>
       <c r="Y8" t="n">
-        <v>325.9588454210943</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>50.42174264793019</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>55.57917861751513</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>56.78874461372734</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>243.4438153256983</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>284.4952700899796</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>272.5065870476614</v>
       </c>
       <c r="D11" t="n">
         <v>263.4878910921893</v>
       </c>
       <c r="E11" t="n">
-        <v>285.2300286620949</v>
+        <v>285.2300286620948</v>
       </c>
       <c r="F11" t="n">
         <v>304.401844750072</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>305.9495592627113</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.61714590357599</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.9630538273417</v>
+        <v>70.96305382734168</v>
       </c>
       <c r="T11" t="n">
         <v>114.8197628315509</v>
@@ -1429,13 +1429,13 @@
         <v>146.6978046195039</v>
       </c>
       <c r="V11" t="n">
-        <v>140.3480777258348</v>
+        <v>228.0016473301587</v>
       </c>
       <c r="W11" t="n">
-        <v>253.3017468081156</v>
+        <v>194.9064519278367</v>
       </c>
       <c r="X11" t="n">
-        <v>272.6020050408623</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>283.998602837061</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.11198096467668</v>
+        <v>76.11198096467666</v>
       </c>
       <c r="C13" t="n">
-        <v>62.31197581007716</v>
+        <v>62.31197581007714</v>
       </c>
       <c r="D13" t="n">
-        <v>45.93334020765555</v>
+        <v>45.93334020765536</v>
       </c>
       <c r="E13" t="n">
-        <v>44.881090063435</v>
+        <v>44.88109006343498</v>
       </c>
       <c r="F13" t="n">
-        <v>45.34801439162091</v>
+        <v>45.34801439162129</v>
       </c>
       <c r="G13" t="n">
-        <v>61.44977113770469</v>
+        <v>61.44977113770467</v>
       </c>
       <c r="H13" t="n">
-        <v>50.63343779194465</v>
+        <v>50.63343779194464</v>
       </c>
       <c r="I13" t="n">
-        <v>31.95222277344503</v>
+        <v>31.95222277344501</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.64244959656069</v>
+        <v>34.64244959656067</v>
       </c>
       <c r="S13" t="n">
         <v>102.9508542594721</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>272.5065870476614</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>263.4878910921893</v>
       </c>
       <c r="E14" t="n">
-        <v>285.2300286620949</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>304.401844750072</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>305.9495592627113</v>
       </c>
       <c r="H14" t="n">
         <v>219.9366790238929</v>
       </c>
       <c r="I14" t="n">
-        <v>50.61714590357599</v>
+        <v>50.61714590357597</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.9630538273417</v>
+        <v>70.96305382734168</v>
       </c>
       <c r="T14" t="n">
         <v>114.8197628315509</v>
       </c>
       <c r="U14" t="n">
-        <v>135.0948418706663</v>
+        <v>146.6978046195039</v>
       </c>
       <c r="V14" t="n">
         <v>228.0016473301587</v>
       </c>
       <c r="W14" t="n">
-        <v>253.3017468081156</v>
+        <v>209.4872376692619</v>
       </c>
       <c r="X14" t="n">
-        <v>272.6020050408623</v>
+        <v>272.6020050408622</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>283.998602837061</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.11198096467668</v>
+        <v>76.11198096467666</v>
       </c>
       <c r="C16" t="n">
-        <v>62.31197581007716</v>
+        <v>62.31197581007714</v>
       </c>
       <c r="D16" t="n">
-        <v>45.93334020765514</v>
+        <v>45.93334020765553</v>
       </c>
       <c r="E16" t="n">
-        <v>44.881090063435</v>
+        <v>44.88109006343498</v>
       </c>
       <c r="F16" t="n">
-        <v>45.34801439162131</v>
+        <v>45.34801439162129</v>
       </c>
       <c r="G16" t="n">
-        <v>61.44977113770469</v>
+        <v>61.44977113770466</v>
       </c>
       <c r="H16" t="n">
-        <v>50.63343779194465</v>
+        <v>50.63343779194463</v>
       </c>
       <c r="I16" t="n">
-        <v>31.95222277344503</v>
+        <v>31.95222277344502</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.64244959656069</v>
+        <v>34.6424495965604</v>
       </c>
       <c r="S16" t="n">
         <v>102.9508542594721</v>
@@ -1852,13 +1852,13 @@
         <v>263.4878910921893</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>285.2300286620949</v>
       </c>
       <c r="F17" t="n">
         <v>304.401844750072</v>
       </c>
       <c r="G17" t="n">
-        <v>305.9495592627113</v>
+        <v>179.9762040328033</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>146.6978046195039</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>228.0016473301587</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>37.85896829064082</v>
+        <v>253.3017468081156</v>
       </c>
       <c r="X17" t="n">
         <v>272.6020050408623</v>
@@ -1943,7 +1943,7 @@
         <v>96.94615904262206</v>
       </c>
       <c r="I18" t="n">
-        <v>60.59595986203808</v>
+        <v>60.59595986203809</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.37839733294501</v>
+        <v>46.37839733294503</v>
       </c>
       <c r="S18" t="n">
         <v>147.4397598257967</v>
@@ -2019,10 +2019,10 @@
         <v>61.44977113770467</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63343779194464</v>
+        <v>50.63343779194458</v>
       </c>
       <c r="I19" t="n">
-        <v>31.95222277344493</v>
+        <v>31.95222277344502</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.64244959656067</v>
+        <v>34.6424495965604</v>
       </c>
       <c r="S19" t="n">
         <v>102.9508542594721</v>
@@ -2058,7 +2058,7 @@
         <v>124.5003786343977</v>
       </c>
       <c r="U19" t="n">
-        <v>178.7010696660988</v>
+        <v>178.7010696660992</v>
       </c>
       <c r="V19" t="n">
         <v>152.5201173643023</v>
@@ -2083,13 +2083,13 @@
         <v>284.4952700899796</v>
       </c>
       <c r="C20" t="n">
-        <v>272.5065870476614</v>
+        <v>52.05937690996846</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>263.4878910921893</v>
       </c>
       <c r="E20" t="n">
-        <v>37.5534713547281</v>
+        <v>285.2300286620949</v>
       </c>
       <c r="F20" t="n">
         <v>304.401844750072</v>
@@ -2098,10 +2098,10 @@
         <v>305.9495592627113</v>
       </c>
       <c r="H20" t="n">
-        <v>219.9366790238929</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>50.617145903576</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>114.8197628315509</v>
       </c>
       <c r="U20" t="n">
-        <v>146.6978046195039</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>228.0016473301587</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>253.3017468081156</v>
       </c>
       <c r="X20" t="n">
         <v>272.6020050408623</v>
@@ -2180,7 +2180,7 @@
         <v>96.94615904262206</v>
       </c>
       <c r="I21" t="n">
-        <v>60.59595986203808</v>
+        <v>60.59595986203809</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.37839733294501</v>
+        <v>46.37839733294504</v>
       </c>
       <c r="S21" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T21" t="n">
         <v>185.9667623645125</v>
@@ -2253,10 +2253,10 @@
         <v>45.34801439162131</v>
       </c>
       <c r="G22" t="n">
-        <v>61.44977113770467</v>
+        <v>61.44977113770469</v>
       </c>
       <c r="H22" t="n">
-        <v>50.63343779194416</v>
+        <v>50.63343779194465</v>
       </c>
       <c r="I22" t="n">
         <v>31.95222277344503</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.64244959656067</v>
+        <v>34.6424495965607</v>
       </c>
       <c r="S22" t="n">
         <v>102.9508542594721</v>
@@ -2295,7 +2295,7 @@
         <v>124.5003786343977</v>
       </c>
       <c r="U22" t="n">
-        <v>178.7010696660994</v>
+        <v>178.7010696660992</v>
       </c>
       <c r="V22" t="n">
         <v>152.5201173643023</v>
@@ -2329,7 +2329,7 @@
         <v>285.2300286620949</v>
       </c>
       <c r="F23" t="n">
-        <v>205.7592555491418</v>
+        <v>304.401844750072</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.61714590357599</v>
+        <v>22.93761052998635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.9630538273417</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>46.37839733294503</v>
       </c>
       <c r="S24" t="n">
-        <v>147.4397598257967</v>
+        <v>147.4397598257968</v>
       </c>
       <c r="T24" t="n">
         <v>185.9667623645125</v>
@@ -2490,10 +2490,10 @@
         <v>45.34801439162131</v>
       </c>
       <c r="G25" t="n">
-        <v>61.44977113770467</v>
+        <v>61.44977113770469</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63343779194464</v>
+        <v>50.63343779194465</v>
       </c>
       <c r="I25" t="n">
         <v>31.95222277344503</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.6424495965607</v>
+        <v>34.64244959656069</v>
       </c>
       <c r="S25" t="n">
-        <v>102.9508542594724</v>
+        <v>102.9508542594721</v>
       </c>
       <c r="T25" t="n">
         <v>124.5003786343977</v>
       </c>
       <c r="U25" t="n">
-        <v>178.7010696660981</v>
+        <v>178.7010696660992</v>
       </c>
       <c r="V25" t="n">
         <v>152.5201173643023</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151.4559810247936</v>
+        <v>284.4952700899796</v>
       </c>
       <c r="C26" t="n">
-        <v>272.5065870476613</v>
+        <v>211.3286451155502</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>263.4878910921893</v>
       </c>
       <c r="E26" t="n">
-        <v>285.2300286620948</v>
+        <v>285.2300286620949</v>
       </c>
       <c r="F26" t="n">
         <v>304.401844750072</v>
@@ -2575,7 +2575,7 @@
         <v>219.9366790238929</v>
       </c>
       <c r="I26" t="n">
-        <v>50.61714590357596</v>
+        <v>50.61714590357598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.96305382734167</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>114.8197628315509</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>146.6978046195039</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>253.3017468081156</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>272.6020050408622</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>283.998602837061</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>46.37839733294503</v>
+        <v>46.37839733294502</v>
       </c>
       <c r="S27" t="n">
         <v>147.4397598257967</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.11198096467665</v>
+        <v>76.11198096467668</v>
       </c>
       <c r="C28" t="n">
-        <v>62.31197581007713</v>
+        <v>62.31197581007716</v>
       </c>
       <c r="D28" t="n">
-        <v>45.93334020765552</v>
+        <v>45.93334020765555</v>
       </c>
       <c r="E28" t="n">
-        <v>44.88109006343498</v>
+        <v>44.881090063435</v>
       </c>
       <c r="F28" t="n">
-        <v>45.34801439162128</v>
+        <v>45.34801439162131</v>
       </c>
       <c r="G28" t="n">
-        <v>61.44977113770466</v>
+        <v>61.44977113770468</v>
       </c>
       <c r="H28" t="n">
-        <v>50.63343779194462</v>
+        <v>50.63343779194465</v>
       </c>
       <c r="I28" t="n">
-        <v>31.952222773445</v>
+        <v>31.95222277344503</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.64244959656066</v>
+        <v>34.64244959656068</v>
       </c>
       <c r="S28" t="n">
         <v>102.9508542594721</v>
       </c>
       <c r="T28" t="n">
-        <v>124.5003786343977</v>
+        <v>124.5003786343973</v>
       </c>
       <c r="U28" t="n">
-        <v>178.7010696660991</v>
+        <v>178.7010696660992</v>
       </c>
       <c r="V28" t="n">
-        <v>152.5201173643022</v>
+        <v>152.5201173643023</v>
       </c>
       <c r="W28" t="n">
         <v>177.6870034349155</v>
@@ -2794,25 +2794,25 @@
         <v>284.4952700899796</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>272.5065870476614</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>285.2300286620948</v>
+        <v>285.2300286620949</v>
       </c>
       <c r="F29" t="n">
         <v>304.401844750072</v>
       </c>
       <c r="G29" t="n">
-        <v>183.8992897941318</v>
+        <v>305.9495592627113</v>
       </c>
       <c r="H29" t="n">
         <v>219.9366790238929</v>
       </c>
       <c r="I29" t="n">
-        <v>50.61714590357596</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.96305382734167</v>
+        <v>70.9630538273417</v>
       </c>
       <c r="T29" t="n">
-        <v>114.8197628315508</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>146.6978046195039</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>228.0016473301587</v>
       </c>
       <c r="W29" t="n">
         <v>253.3017468081156</v>
       </c>
       <c r="X29" t="n">
-        <v>272.6020050408622</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>283.998602837061</v>
+        <v>246.1768173861538</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>46.37839733294503</v>
+        <v>46.37839733294502</v>
       </c>
       <c r="S30" t="n">
         <v>147.4397598257967</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.11198096467665</v>
+        <v>76.11198096467668</v>
       </c>
       <c r="C31" t="n">
-        <v>62.31197581007713</v>
+        <v>62.31197581007716</v>
       </c>
       <c r="D31" t="n">
-        <v>45.93334020765552</v>
+        <v>45.93334020765555</v>
       </c>
       <c r="E31" t="n">
-        <v>44.88109006343497</v>
+        <v>44.881090063435</v>
       </c>
       <c r="F31" t="n">
-        <v>45.34801439162128</v>
+        <v>45.34801439162131</v>
       </c>
       <c r="G31" t="n">
-        <v>61.44977113770466</v>
+        <v>61.44977113770467</v>
       </c>
       <c r="H31" t="n">
-        <v>50.63343779194462</v>
+        <v>50.63343779194464</v>
       </c>
       <c r="I31" t="n">
-        <v>31.952222773445</v>
+        <v>31.9522227734445</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.64244959656066</v>
+        <v>34.6424495965604</v>
       </c>
       <c r="S31" t="n">
         <v>102.9508542594721</v>
       </c>
       <c r="T31" t="n">
-        <v>124.5003786343988</v>
+        <v>124.5003786343977</v>
       </c>
       <c r="U31" t="n">
-        <v>178.7010696660991</v>
+        <v>178.7010696660992</v>
       </c>
       <c r="V31" t="n">
-        <v>152.5201173643022</v>
+        <v>152.5201173643023</v>
       </c>
       <c r="W31" t="n">
         <v>177.6870034349155</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.87229035396204</v>
+        <v>284.4952700899796</v>
       </c>
       <c r="C32" t="n">
         <v>272.5065870476614</v>
       </c>
       <c r="D32" t="n">
-        <v>263.4878910921893</v>
+        <v>201.5764596754504</v>
       </c>
       <c r="E32" t="n">
         <v>285.2300286620948</v>
@@ -3049,7 +3049,7 @@
         <v>219.9366790238929</v>
       </c>
       <c r="I32" t="n">
-        <v>50.61714590357597</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.9630538273417</v>
+        <v>70.96305382734168</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>146.6978046195039</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>253.3017468081156</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>272.6020050408622</v>
       </c>
       <c r="Y32" t="n">
-        <v>283.998602837061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>46.37839733294503</v>
+        <v>46.37839733294502</v>
       </c>
       <c r="S33" t="n">
         <v>147.4397598257967</v>
@@ -3189,7 +3189,7 @@
         <v>76.11198096467666</v>
       </c>
       <c r="C34" t="n">
-        <v>62.31197581007697</v>
+        <v>62.31197581007714</v>
       </c>
       <c r="D34" t="n">
         <v>45.93334020765553</v>
@@ -3207,7 +3207,7 @@
         <v>50.63343779194464</v>
       </c>
       <c r="I34" t="n">
-        <v>31.95222277344502</v>
+        <v>31.95222277344501</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>284.4952700899796</v>
+        <v>59.41742506774975</v>
       </c>
       <c r="C35" t="n">
-        <v>219.1767147004174</v>
+        <v>272.5065870476614</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>263.4878910921893</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>285.2300286620948</v>
       </c>
       <c r="F35" t="n">
-        <v>304.401844750072</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>305.9495592627113</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>219.9366790238929</v>
       </c>
       <c r="I35" t="n">
-        <v>50.61714590357597</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.9630538273417</v>
+        <v>70.96305382734168</v>
       </c>
       <c r="T35" t="n">
         <v>114.8197628315509</v>
@@ -3334,7 +3334,7 @@
         <v>272.6020050408622</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>283.998602837061</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>46.37839733294503</v>
+        <v>46.37839733294502</v>
       </c>
       <c r="S36" t="n">
         <v>147.4397598257967</v>
@@ -3441,7 +3441,7 @@
         <v>61.44977113770466</v>
       </c>
       <c r="H37" t="n">
-        <v>50.63343779194399</v>
+        <v>50.63343779194463</v>
       </c>
       <c r="I37" t="n">
         <v>31.95222277344502</v>
@@ -3474,13 +3474,13 @@
         <v>34.64244959656068</v>
       </c>
       <c r="S37" t="n">
-        <v>102.9508542594717</v>
+        <v>102.9508542594719</v>
       </c>
       <c r="T37" t="n">
         <v>124.5003786343977</v>
       </c>
       <c r="U37" t="n">
-        <v>178.7010696660999</v>
+        <v>178.701069666099</v>
       </c>
       <c r="V37" t="n">
         <v>152.5201173643023</v>
@@ -3505,16 +3505,16 @@
         <v>284.4952700899796</v>
       </c>
       <c r="C38" t="n">
-        <v>209.199389272088</v>
+        <v>272.5065870476614</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>263.4878910921893</v>
       </c>
       <c r="E38" t="n">
-        <v>285.2300286620948</v>
+        <v>60.15218363986507</v>
       </c>
       <c r="F38" t="n">
-        <v>304.401844750072</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>219.9366790238929</v>
       </c>
       <c r="I38" t="n">
-        <v>50.61714590357597</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.9630538273417</v>
+        <v>70.96305382734168</v>
       </c>
       <c r="T38" t="n">
         <v>114.8197628315509</v>
@@ -3565,7 +3565,7 @@
         <v>228.0016473301587</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>253.3017468081156</v>
       </c>
       <c r="X38" t="n">
         <v>272.6020050408622</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>46.37839733294503</v>
+        <v>46.37839733294502</v>
       </c>
       <c r="S39" t="n">
         <v>147.4397598257967</v>
@@ -3681,7 +3681,7 @@
         <v>50.63343779194464</v>
       </c>
       <c r="I40" t="n">
-        <v>31.95222277344502</v>
+        <v>31.95222277344501</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>191.6482654051433</v>
+        <v>109.7530332969176</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.5573932955706</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>176.5708878602011</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3056386523632</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.057605170564</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.5600568063044</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>135.0438650124638</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>167.4206673719228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>203.6478307080911</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>325.5445130567522</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>156.2249799364353</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.51288583221375</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>176.5708878602011</v>
       </c>
       <c r="T44" t="n">
         <v>220.4275968644102</v>
@@ -4042,10 +4042,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.9675941627754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.3089036989585</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.4918217654897</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>126.1646113567902</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.62741011778</v>
+        <v>1213.742068589895</v>
       </c>
       <c r="C2" t="n">
-        <v>1313.62741011778</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D2" t="n">
-        <v>940.8034453450039</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E2" t="n">
-        <v>546.0177254511107</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F2" t="n">
-        <v>458.1282426470112</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G2" t="n">
         <v>42.02425610119923</v>
@@ -4366,16 +4366,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V2" t="n">
-        <v>2101.212805059961</v>
+        <v>1989.314064492564</v>
       </c>
       <c r="W2" t="n">
-        <v>2101.212805059961</v>
+        <v>1989.314064492564</v>
       </c>
       <c r="X2" t="n">
-        <v>2101.212805059961</v>
+        <v>1607.283924014057</v>
       </c>
       <c r="Y2" t="n">
-        <v>1707.670949635799</v>
+        <v>1213.742068589895</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>901.1127612485946</v>
+        <v>674.4636602520131</v>
       </c>
       <c r="C3" t="n">
-        <v>759.6333438441981</v>
+        <v>512.7599874929679</v>
       </c>
       <c r="D3" t="n">
-        <v>620.7947068344101</v>
+        <v>373.9213504831799</v>
       </c>
       <c r="E3" t="n">
-        <v>473.7666968912813</v>
+        <v>226.8933405400512</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G3" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H3" t="n">
         <v>110.4065414111382</v>
@@ -4409,52 +4409,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>892.8794547815413</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N3" t="n">
-        <v>1404.145100904663</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O3" t="n">
-        <v>1796.345051688814</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V3" t="n">
-        <v>1253.053530380276</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W3" t="n">
-        <v>1253.053530380276</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X3" t="n">
-        <v>1253.053530380276</v>
+        <v>1026.404429383695</v>
       </c>
       <c r="Y3" t="n">
-        <v>1060.532204029855</v>
+        <v>833.8831030332741</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
         <v>42.02425610119923</v>
@@ -4521,19 +4521,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>286.8932618362315</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V4" t="n">
-        <v>286.8932618362315</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W4" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1205.100707739532</v>
+        <v>818.9563486960019</v>
       </c>
       <c r="C5" t="n">
-        <v>1205.100707739532</v>
+        <v>437.0225900288092</v>
       </c>
       <c r="D5" t="n">
-        <v>1205.100707739532</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E5" t="n">
-        <v>1205.100707739532</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F5" t="n">
-        <v>790.949517049702</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G5" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
         <v>42.02425610119923</v>
@@ -4567,19 +4567,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U5" t="n">
-        <v>1981.174387736057</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.174387736057</v>
+        <v>1194.350961896761</v>
       </c>
       <c r="W5" t="n">
-        <v>1981.174387736057</v>
+        <v>831.8160317543623</v>
       </c>
       <c r="X5" t="n">
-        <v>1599.144247257551</v>
+        <v>831.8160317543623</v>
       </c>
       <c r="Y5" t="n">
-        <v>1599.144247257551</v>
+        <v>831.8160317543623</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.879904359699</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C6" t="n">
-        <v>339.0728988411556</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D6" t="n">
-        <v>339.0728988411556</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E6" t="n">
-        <v>339.0728988411556</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N6" t="n">
-        <v>1406.916935000113</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O6" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P6" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2091.018772267238</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>2091.018772267238</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>2091.018772267238</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574.0835013471317</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="C7" t="n">
-        <v>574.0835013471317</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="D7" t="n">
-        <v>574.0835013471317</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="E7" t="n">
-        <v>574.0835013471317</v>
+        <v>238.5191184240707</v>
       </c>
       <c r="F7" t="n">
-        <v>574.0835013471317</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G7" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1377.917906530736</v>
+        <v>1151.777623098693</v>
       </c>
       <c r="C8" t="n">
-        <v>1377.917906530736</v>
+        <v>769.8438644314999</v>
       </c>
       <c r="D8" t="n">
-        <v>1377.917906530736</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="E8" t="n">
-        <v>1377.917906530736</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.212805059961</v>
+        <v>1545.319478522855</v>
       </c>
       <c r="Y8" t="n">
-        <v>1771.961446048755</v>
+        <v>1151.777623098693</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>674.4636602520131</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>512.7599874929679</v>
       </c>
       <c r="D9" t="n">
-        <v>161.3375945908657</v>
+        <v>373.9213504831799</v>
       </c>
       <c r="E9" t="n">
-        <v>110.4065414111382</v>
+        <v>226.8933405400512</v>
       </c>
       <c r="F9" t="n">
-        <v>110.4065414111382</v>
+        <v>226.8933405400512</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>98.16484056333573</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
         <v>1406.916935000113</v>
@@ -4907,28 +4907,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1026.404429383695</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>833.8831030332741</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>516.7211330504374</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>347.1051635121177</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E10" t="n">
         <v>42.02425610119923</v>
@@ -4995,19 +4995,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>328.1806575838001</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>328.1806575838001</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>963.8027591048622</v>
+        <v>1496.973466586475</v>
       </c>
       <c r="C11" t="n">
-        <v>963.8027591048622</v>
+        <v>1221.714287750453</v>
       </c>
       <c r="D11" t="n">
-        <v>697.6533741632568</v>
+        <v>955.5649028088478</v>
       </c>
       <c r="E11" t="n">
-        <v>409.5422341005346</v>
+        <v>667.4537627461258</v>
       </c>
       <c r="F11" t="n">
-        <v>102.065623241876</v>
+        <v>359.9771518874672</v>
       </c>
       <c r="G11" t="n">
-        <v>102.065623241876</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="H11" t="n">
-        <v>102.065623241876</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="I11" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J11" t="n">
-        <v>155.3318652848799</v>
+        <v>155.3318652848797</v>
       </c>
       <c r="K11" t="n">
-        <v>444.0256353355901</v>
+        <v>444.0256353355898</v>
       </c>
       <c r="L11" t="n">
-        <v>852.1457920320288</v>
+        <v>852.1457920320283</v>
       </c>
       <c r="M11" t="n">
         <v>1312.407761053182</v>
@@ -5056,37 +5056,37 @@
         <v>1758.846421527933</v>
       </c>
       <c r="O11" t="n">
-        <v>2128.162799782564</v>
+        <v>2128.162799782563</v>
       </c>
       <c r="P11" t="n">
-        <v>2411.208324325445</v>
+        <v>2411.208324325444</v>
       </c>
       <c r="Q11" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="R11" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="S11" t="n">
-        <v>2475.179799461335</v>
+        <v>2475.179799461334</v>
       </c>
       <c r="T11" t="n">
         <v>2359.200241045627</v>
       </c>
       <c r="U11" t="n">
-        <v>2211.020640419866</v>
+        <v>2211.020640419865</v>
       </c>
       <c r="V11" t="n">
-        <v>2069.254905343265</v>
+        <v>1980.715946146978</v>
       </c>
       <c r="W11" t="n">
-        <v>1813.394555032037</v>
+        <v>1783.840742179466</v>
       </c>
       <c r="X11" t="n">
-        <v>1538.038994384701</v>
+        <v>1783.840742179466</v>
       </c>
       <c r="Y11" t="n">
-        <v>1251.17171879171</v>
+        <v>1496.973466586475</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>338.5907734748992</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0706464752944</v>
+        <v>210.0706464752943</v>
       </c>
       <c r="H12" t="n">
         <v>112.1452333009286</v>
       </c>
       <c r="I12" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J12" t="n">
-        <v>111.1913395693499</v>
+        <v>111.1913395693498</v>
       </c>
       <c r="K12" t="n">
-        <v>111.1913395693499</v>
+        <v>223.4758379880054</v>
       </c>
       <c r="L12" t="n">
-        <v>521.3562799045728</v>
+        <v>589.297683158121</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.135933943801</v>
+        <v>1126.07733719735</v>
       </c>
       <c r="N12" t="n">
-        <v>1622.517451195005</v>
+        <v>1690.458854448554</v>
       </c>
       <c r="O12" t="n">
-        <v>2056.589490179977</v>
+        <v>2082.658805232705</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.685409455674</v>
+        <v>2384.754724508402</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.526354293996</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396.9067406886508</v>
+        <v>396.9067406886509</v>
       </c>
       <c r="C13" t="n">
-        <v>333.9653509815021</v>
+        <v>333.9653509815023</v>
       </c>
       <c r="D13" t="n">
-        <v>287.5680376404359</v>
+        <v>287.5680376404363</v>
       </c>
       <c r="E13" t="n">
-        <v>242.2336032329258</v>
+        <v>242.2336032329262</v>
       </c>
       <c r="F13" t="n">
-        <v>196.4275280898744</v>
+        <v>196.4275280898743</v>
       </c>
       <c r="G13" t="n">
-        <v>134.357052193203</v>
+        <v>134.3570521932029</v>
       </c>
       <c r="H13" t="n">
-        <v>83.21216553467302</v>
+        <v>83.21216553467301</v>
       </c>
       <c r="I13" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J13" t="n">
-        <v>108.7318568374903</v>
+        <v>108.7318568374904</v>
       </c>
       <c r="K13" t="n">
-        <v>266.7800463495824</v>
+        <v>266.7800463495825</v>
       </c>
       <c r="L13" t="n">
         <v>497.3941077576472</v>
@@ -5235,16 +5235,16 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V13" t="n">
-        <v>893.2078144432944</v>
+        <v>893.2078144432945</v>
       </c>
       <c r="W13" t="n">
-        <v>713.7259927918645</v>
+        <v>713.7259927918647</v>
       </c>
       <c r="X13" t="n">
-        <v>589.1481085184114</v>
+        <v>589.1481085184115</v>
       </c>
       <c r="Y13" t="n">
-        <v>473.7875295418596</v>
+        <v>473.7875295418597</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1461.22019958118</v>
+        <v>1206.889839533659</v>
       </c>
       <c r="C14" t="n">
-        <v>1185.961020745158</v>
+        <v>1206.889839533659</v>
       </c>
       <c r="D14" t="n">
-        <v>919.8116358035527</v>
+        <v>940.740454592054</v>
       </c>
       <c r="E14" t="n">
-        <v>631.7004957408305</v>
+        <v>940.740454592054</v>
       </c>
       <c r="F14" t="n">
-        <v>324.2238848821719</v>
+        <v>633.2638437333953</v>
       </c>
       <c r="G14" t="n">
         <v>324.2238848821719</v>
@@ -5275,16 +5275,16 @@
         <v>102.065623241876</v>
       </c>
       <c r="I14" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J14" t="n">
-        <v>155.3318652848799</v>
+        <v>155.3318652848797</v>
       </c>
       <c r="K14" t="n">
-        <v>444.0256353355899</v>
+        <v>444.0256353355898</v>
       </c>
       <c r="L14" t="n">
-        <v>852.1457920320286</v>
+        <v>852.1457920320281</v>
       </c>
       <c r="M14" t="n">
         <v>1312.407761053182</v>
@@ -5293,37 +5293,37 @@
         <v>1758.846421527933</v>
       </c>
       <c r="O14" t="n">
-        <v>2128.162799782564</v>
+        <v>2128.162799782563</v>
       </c>
       <c r="P14" t="n">
-        <v>2411.208324325445</v>
+        <v>2411.208324325444</v>
       </c>
       <c r="Q14" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="R14" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="S14" t="n">
-        <v>2475.179799461335</v>
+        <v>2475.179799461334</v>
       </c>
       <c r="T14" t="n">
         <v>2359.200241045627</v>
       </c>
       <c r="U14" t="n">
-        <v>2222.740804812631</v>
+        <v>2211.020640419865</v>
       </c>
       <c r="V14" t="n">
-        <v>1992.436110539743</v>
+        <v>1980.715946146978</v>
       </c>
       <c r="W14" t="n">
-        <v>1736.575760228515</v>
+        <v>1769.112675773986</v>
       </c>
       <c r="X14" t="n">
-        <v>1461.22019958118</v>
+        <v>1493.75711512665</v>
       </c>
       <c r="Y14" t="n">
-        <v>1461.22019958118</v>
+        <v>1206.889839533659</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>925.1881887551756</v>
+        <v>920.8548912369869</v>
       </c>
       <c r="C15" t="n">
-        <v>763.4845159961303</v>
+        <v>759.1512184779416</v>
       </c>
       <c r="D15" t="n">
-        <v>624.6458789863424</v>
+        <v>620.3125814681537</v>
       </c>
       <c r="E15" t="n">
-        <v>477.6178690432136</v>
+        <v>473.2845715250248</v>
       </c>
       <c r="F15" t="n">
-        <v>342.924070993088</v>
+        <v>338.5907734748992</v>
       </c>
       <c r="G15" t="n">
-        <v>214.4039439934831</v>
+        <v>210.0706464752943</v>
       </c>
       <c r="H15" t="n">
-        <v>116.4785308191174</v>
+        <v>112.1452333009286</v>
       </c>
       <c r="I15" t="n">
-        <v>55.27049055443247</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J15" t="n">
-        <v>134.8195489742486</v>
+        <v>111.1913395693498</v>
       </c>
       <c r="K15" t="n">
-        <v>397.2881791971735</v>
+        <v>340.6818921295385</v>
       </c>
       <c r="L15" t="n">
-        <v>807.4531195323964</v>
+        <v>706.5037372996542</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.232773571625</v>
+        <v>1243.283391338883</v>
       </c>
       <c r="N15" t="n">
-        <v>1581.133915376392</v>
+        <v>1807.664908590087</v>
       </c>
       <c r="O15" t="n">
-        <v>2021.924511215014</v>
+        <v>2248.455504428709</v>
       </c>
       <c r="P15" t="n">
-        <v>2363.018706973863</v>
+        <v>2384.754724508402</v>
       </c>
       <c r="Q15" t="n">
-        <v>2546.859651812185</v>
+        <v>2542.526354293996</v>
       </c>
       <c r="R15" t="n">
-        <v>2500.012785819311</v>
+        <v>2495.679488301122</v>
       </c>
       <c r="S15" t="n">
-        <v>2351.083735490223</v>
+        <v>2346.750437972034</v>
       </c>
       <c r="T15" t="n">
-        <v>2163.238520980615</v>
+        <v>2158.905223462426</v>
       </c>
       <c r="U15" t="n">
-        <v>1944.757437327419</v>
+        <v>1940.42413980923</v>
       </c>
       <c r="V15" t="n">
-        <v>1716.361814775753</v>
+        <v>1712.028517257564</v>
       </c>
       <c r="W15" t="n">
-        <v>1475.045946009063</v>
+        <v>1470.712648490874</v>
       </c>
       <c r="X15" t="n">
-        <v>1277.128957886858</v>
+        <v>1272.795660368669</v>
       </c>
       <c r="Y15" t="n">
-        <v>1084.607631536436</v>
+        <v>1080.274334018248</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>396.9067406886508</v>
+        <v>396.9067406886511</v>
       </c>
       <c r="C16" t="n">
-        <v>333.9653509815021</v>
+        <v>333.9653509815025</v>
       </c>
       <c r="D16" t="n">
         <v>287.5680376404363</v>
@@ -5430,28 +5430,28 @@
         <v>134.357052193203</v>
       </c>
       <c r="H16" t="n">
-        <v>83.21216553467302</v>
+        <v>83.21216553467301</v>
       </c>
       <c r="I16" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J16" t="n">
-        <v>108.7318568374903</v>
+        <v>108.7318568374906</v>
       </c>
       <c r="K16" t="n">
-        <v>266.7800463495824</v>
+        <v>266.7800463495827</v>
       </c>
       <c r="L16" t="n">
-        <v>497.3941077576472</v>
+        <v>497.3941077576475</v>
       </c>
       <c r="M16" t="n">
-        <v>746.7783366411452</v>
+        <v>746.7783366411454</v>
       </c>
       <c r="N16" t="n">
-        <v>995.9532304979159</v>
+        <v>995.9532304979161</v>
       </c>
       <c r="O16" t="n">
-        <v>1223.169308896842</v>
+        <v>1223.169308896843</v>
       </c>
       <c r="P16" t="n">
         <v>1411.397407611776</v>
@@ -5472,16 +5472,16 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V16" t="n">
-        <v>893.2078144432944</v>
+        <v>893.2078144432946</v>
       </c>
       <c r="W16" t="n">
-        <v>713.7259927918645</v>
+        <v>713.7259927918649</v>
       </c>
       <c r="X16" t="n">
-        <v>589.1481085184114</v>
+        <v>589.1481085184117</v>
       </c>
       <c r="Y16" t="n">
-        <v>473.7875295418596</v>
+        <v>473.7875295418598</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1208.862326523753</v>
+        <v>1369.727653222932</v>
       </c>
       <c r="C17" t="n">
-        <v>933.6031476877313</v>
+        <v>1094.46847438691</v>
       </c>
       <c r="D17" t="n">
-        <v>667.4537627461259</v>
+        <v>828.3190894453046</v>
       </c>
       <c r="E17" t="n">
-        <v>667.4537627461259</v>
+        <v>540.2079493825825</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9771518874672</v>
+        <v>232.7313385239238</v>
       </c>
       <c r="G17" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="H17" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="I17" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J17" t="n">
-        <v>155.3318652848798</v>
+        <v>155.3318652848797</v>
       </c>
       <c r="K17" t="n">
-        <v>444.0256353355899</v>
+        <v>444.0256353355898</v>
       </c>
       <c r="L17" t="n">
-        <v>852.1457920320286</v>
+        <v>852.1457920320281</v>
       </c>
       <c r="M17" t="n">
         <v>1312.407761053182</v>
@@ -5530,37 +5530,37 @@
         <v>1758.846421527933</v>
       </c>
       <c r="O17" t="n">
-        <v>2128.162799782564</v>
+        <v>2128.162799782563</v>
       </c>
       <c r="P17" t="n">
-        <v>2411.208324325445</v>
+        <v>2411.208324325444</v>
       </c>
       <c r="Q17" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="R17" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="S17" t="n">
-        <v>2475.179799461335</v>
+        <v>2475.179799461334</v>
       </c>
       <c r="T17" t="n">
-        <v>2475.179799461335</v>
+        <v>2475.179799461334</v>
       </c>
       <c r="U17" t="n">
-        <v>2327.000198835573</v>
+        <v>2475.179799461334</v>
       </c>
       <c r="V17" t="n">
-        <v>2096.695504562686</v>
+        <v>2475.179799461334</v>
       </c>
       <c r="W17" t="n">
-        <v>2058.454122450928</v>
+        <v>2219.319449150106</v>
       </c>
       <c r="X17" t="n">
-        <v>1783.098561803592</v>
+        <v>1943.963888502771</v>
       </c>
       <c r="Y17" t="n">
-        <v>1496.231286210601</v>
+        <v>1657.09661290978</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>112.1452333009286</v>
       </c>
       <c r="I18" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J18" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="K18" t="n">
-        <v>279.7473645906186</v>
+        <v>174.8851929335346</v>
       </c>
       <c r="L18" t="n">
-        <v>645.5692097607342</v>
+        <v>540.7070381036502</v>
       </c>
       <c r="M18" t="n">
-        <v>1130.602563270961</v>
+        <v>1077.486692142879</v>
       </c>
       <c r="N18" t="n">
         <v>1641.868209394083</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>396.9067406886514</v>
+        <v>396.906740688651</v>
       </c>
       <c r="C19" t="n">
-        <v>333.9653509815028</v>
+        <v>333.9653509815024</v>
       </c>
       <c r="D19" t="n">
-        <v>287.5680376404366</v>
+        <v>287.5680376404362</v>
       </c>
       <c r="E19" t="n">
-        <v>242.2336032329264</v>
+        <v>242.2336032329261</v>
       </c>
       <c r="F19" t="n">
-        <v>196.4275280898746</v>
+        <v>196.4275280898743</v>
       </c>
       <c r="G19" t="n">
         <v>134.3570521932029</v>
       </c>
       <c r="H19" t="n">
-        <v>83.21216553467292</v>
+        <v>83.21216553467301</v>
       </c>
       <c r="I19" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J19" t="n">
-        <v>108.7318568374904</v>
+        <v>108.7318568374903</v>
       </c>
       <c r="K19" t="n">
         <v>266.7800463495824</v>
@@ -5685,7 +5685,7 @@
         <v>746.7783366411452</v>
       </c>
       <c r="N19" t="n">
-        <v>995.9532304979158</v>
+        <v>995.9532304979159</v>
       </c>
       <c r="O19" t="n">
         <v>1223.169308896842</v>
@@ -5709,16 +5709,16 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V19" t="n">
-        <v>893.2078144432949</v>
+        <v>893.2078144432946</v>
       </c>
       <c r="W19" t="n">
-        <v>713.7259927918651</v>
+        <v>713.7259927918648</v>
       </c>
       <c r="X19" t="n">
-        <v>589.148108518412</v>
+        <v>589.1481085184116</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.7875295418602</v>
+        <v>473.7875295418598</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1202.804002570654</v>
+        <v>1325.427947158074</v>
       </c>
       <c r="C20" t="n">
-        <v>927.544823734632</v>
+        <v>1272.842717956086</v>
       </c>
       <c r="D20" t="n">
-        <v>927.544823734632</v>
+        <v>1006.69333301448</v>
       </c>
       <c r="E20" t="n">
-        <v>889.6120243864218</v>
+        <v>718.5821929517582</v>
       </c>
       <c r="F20" t="n">
-        <v>582.1354135277631</v>
+        <v>411.1055820930995</v>
       </c>
       <c r="G20" t="n">
-        <v>273.0954546765396</v>
+        <v>102.065623241876</v>
       </c>
       <c r="H20" t="n">
-        <v>50.9371930362437</v>
+        <v>102.065623241876</v>
       </c>
       <c r="I20" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J20" t="n">
-        <v>155.3318652848798</v>
+        <v>155.3318652848802</v>
       </c>
       <c r="K20" t="n">
-        <v>444.0256353355899</v>
+        <v>444.0256353355902</v>
       </c>
       <c r="L20" t="n">
-        <v>852.1457920320286</v>
+        <v>852.1457920320288</v>
       </c>
       <c r="M20" t="n">
         <v>1312.407761053182</v>
@@ -5767,37 +5767,37 @@
         <v>1758.846421527933</v>
       </c>
       <c r="O20" t="n">
-        <v>2128.162799782564</v>
+        <v>2128.162799782563</v>
       </c>
       <c r="P20" t="n">
-        <v>2411.208324325445</v>
+        <v>2411.208324325444</v>
       </c>
       <c r="Q20" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="R20" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="S20" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="T20" t="n">
         <v>2430.880093396477</v>
       </c>
       <c r="U20" t="n">
-        <v>2282.700492770716</v>
+        <v>2430.880093396477</v>
       </c>
       <c r="V20" t="n">
-        <v>2052.395798497828</v>
+        <v>2430.880093396477</v>
       </c>
       <c r="W20" t="n">
-        <v>2052.395798497828</v>
+        <v>2175.019743085249</v>
       </c>
       <c r="X20" t="n">
-        <v>1777.040237850493</v>
+        <v>1899.664182437913</v>
       </c>
       <c r="Y20" t="n">
-        <v>1490.172962257502</v>
+        <v>1612.796906844922</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>338.5907734748992</v>
       </c>
       <c r="G21" t="n">
-        <v>210.0706464752943</v>
+        <v>210.0706464752944</v>
       </c>
       <c r="H21" t="n">
         <v>112.1452333009286</v>
       </c>
       <c r="I21" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J21" t="n">
-        <v>130.4862514560598</v>
+        <v>111.1913395693498</v>
       </c>
       <c r="K21" t="n">
-        <v>392.9548816789848</v>
+        <v>174.8851929335348</v>
       </c>
       <c r="L21" t="n">
-        <v>803.1198220142078</v>
+        <v>540.7070381036505</v>
       </c>
       <c r="M21" t="n">
-        <v>1065.534971735081</v>
+        <v>1077.486692142879</v>
       </c>
       <c r="N21" t="n">
-        <v>1576.800617858203</v>
+        <v>1641.868209394083</v>
       </c>
       <c r="O21" t="n">
-        <v>2017.591213696825</v>
+        <v>2082.658805232705</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.685409455674</v>
+        <v>2384.754724508402</v>
       </c>
       <c r="Q21" t="n">
         <v>2542.526354293996</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1451.250629046599</v>
+        <v>396.9067406886512</v>
       </c>
       <c r="C22" t="n">
-        <v>1388.309239339451</v>
+        <v>333.9653509815025</v>
       </c>
       <c r="D22" t="n">
-        <v>1341.911925998385</v>
+        <v>287.5680376404363</v>
       </c>
       <c r="E22" t="n">
-        <v>1296.577491590875</v>
+        <v>242.2336032329262</v>
       </c>
       <c r="F22" t="n">
-        <v>1250.771416447823</v>
+        <v>196.4275280898744</v>
       </c>
       <c r="G22" t="n">
-        <v>1188.700940551151</v>
+        <v>134.357052193203</v>
       </c>
       <c r="H22" t="n">
-        <v>1137.556053892622</v>
+        <v>83.21216553467302</v>
       </c>
       <c r="I22" t="n">
-        <v>1105.281081394192</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J22" t="n">
-        <v>1163.075745195439</v>
+        <v>108.7318568374903</v>
       </c>
       <c r="K22" t="n">
-        <v>1321.123934707531</v>
+        <v>266.7800463495824</v>
       </c>
       <c r="L22" t="n">
-        <v>1551.737996115596</v>
+        <v>497.3941077576478</v>
       </c>
       <c r="M22" t="n">
-        <v>1801.122224999094</v>
+        <v>746.7783366411456</v>
       </c>
       <c r="N22" t="n">
-        <v>2050.297118855865</v>
+        <v>995.9532304979164</v>
       </c>
       <c r="O22" t="n">
-        <v>2277.513197254792</v>
+        <v>1223.169308896843</v>
       </c>
       <c r="P22" t="n">
-        <v>2465.741295969725</v>
+        <v>1411.397407611777</v>
       </c>
       <c r="Q22" t="n">
-        <v>2546.859651812185</v>
+        <v>1492.515763454236</v>
       </c>
       <c r="R22" t="n">
-        <v>2511.867278482326</v>
+        <v>1457.523390124377</v>
       </c>
       <c r="S22" t="n">
-        <v>2407.876516604071</v>
+        <v>1353.532628246122</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.118558387508</v>
+        <v>1227.774670029559</v>
       </c>
       <c r="U22" t="n">
-        <v>2101.61242741165</v>
+        <v>1047.268539053701</v>
       </c>
       <c r="V22" t="n">
-        <v>1947.551702801243</v>
+        <v>893.2078144432949</v>
       </c>
       <c r="W22" t="n">
-        <v>1768.069881149813</v>
+        <v>713.725992791865</v>
       </c>
       <c r="X22" t="n">
-        <v>1643.49199687636</v>
+        <v>589.1481085184118</v>
       </c>
       <c r="Y22" t="n">
-        <v>1528.131417899808</v>
+        <v>473.78752954186</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1139.422958950045</v>
+        <v>1211.102811300894</v>
       </c>
       <c r="C23" t="n">
-        <v>864.1637801140234</v>
+        <v>935.8436324648726</v>
       </c>
       <c r="D23" t="n">
-        <v>598.0143951724181</v>
+        <v>669.6942475232672</v>
       </c>
       <c r="E23" t="n">
-        <v>309.903255109696</v>
+        <v>381.5831074605451</v>
       </c>
       <c r="F23" t="n">
-        <v>102.065623241876</v>
+        <v>74.10649660188648</v>
       </c>
       <c r="G23" t="n">
-        <v>102.065623241876</v>
+        <v>74.10649660188648</v>
       </c>
       <c r="H23" t="n">
-        <v>102.065623241876</v>
+        <v>74.10649660188648</v>
       </c>
       <c r="I23" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J23" t="n">
-        <v>155.3318652848802</v>
+        <v>155.3318652848798</v>
       </c>
       <c r="K23" t="n">
-        <v>444.0256353355903</v>
+        <v>444.0256353355896</v>
       </c>
       <c r="L23" t="n">
-        <v>852.1457920320289</v>
+        <v>852.1457920320281</v>
       </c>
       <c r="M23" t="n">
-        <v>1312.407761053182</v>
+        <v>1312.407761053181</v>
       </c>
       <c r="N23" t="n">
         <v>1758.846421527933</v>
       </c>
       <c r="O23" t="n">
-        <v>2128.162799782564</v>
+        <v>2128.162799782563</v>
       </c>
       <c r="P23" t="n">
-        <v>2411.208324325445</v>
+        <v>2411.208324325444</v>
       </c>
       <c r="Q23" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="R23" t="n">
-        <v>2546.859651812185</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="S23" t="n">
-        <v>2475.179799461335</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="T23" t="n">
-        <v>2475.179799461335</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="U23" t="n">
-        <v>2475.179799461335</v>
+        <v>2546.859651812184</v>
       </c>
       <c r="V23" t="n">
-        <v>2244.875105188447</v>
+        <v>2316.554957539297</v>
       </c>
       <c r="W23" t="n">
-        <v>1989.01475487722</v>
+        <v>2060.694607228069</v>
       </c>
       <c r="X23" t="n">
-        <v>1713.659194229884</v>
+        <v>1785.339046580733</v>
       </c>
       <c r="Y23" t="n">
-        <v>1426.791918636893</v>
+        <v>1498.471770987742</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>112.1452333009286</v>
       </c>
       <c r="I24" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J24" t="n">
-        <v>50.9371930362437</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="K24" t="n">
-        <v>313.4058232591686</v>
+        <v>174.8851929335348</v>
       </c>
       <c r="L24" t="n">
-        <v>723.5707635943916</v>
+        <v>540.7070381036505</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.604117104618</v>
+        <v>1077.486692142879</v>
       </c>
       <c r="N24" t="n">
-        <v>1576.800617858203</v>
+        <v>1641.868209394083</v>
       </c>
       <c r="O24" t="n">
-        <v>2017.591213696825</v>
+        <v>2082.658805232705</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.685409455674</v>
+        <v>2384.754724508402</v>
       </c>
       <c r="Q24" t="n">
         <v>2542.526354293996</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1451.2506290466</v>
+        <v>396.9067406886512</v>
       </c>
       <c r="C25" t="n">
-        <v>1388.309239339452</v>
+        <v>333.9653509815025</v>
       </c>
       <c r="D25" t="n">
-        <v>1341.911925998386</v>
+        <v>287.5680376404363</v>
       </c>
       <c r="E25" t="n">
-        <v>1296.577491590876</v>
+        <v>242.2336032329262</v>
       </c>
       <c r="F25" t="n">
-        <v>1250.771416447824</v>
+        <v>196.4275280898744</v>
       </c>
       <c r="G25" t="n">
-        <v>1188.700940551152</v>
+        <v>134.357052193203</v>
       </c>
       <c r="H25" t="n">
-        <v>1137.556053892622</v>
+        <v>83.21216553467302</v>
       </c>
       <c r="I25" t="n">
-        <v>1105.281081394193</v>
+        <v>50.93719303624369</v>
       </c>
       <c r="J25" t="n">
-        <v>1163.075745195439</v>
+        <v>108.7318568374903</v>
       </c>
       <c r="K25" t="n">
-        <v>1321.123934707532</v>
+        <v>266.7800463495824</v>
       </c>
       <c r="L25" t="n">
-        <v>1551.737996115596</v>
+        <v>497.3941077576472</v>
       </c>
       <c r="M25" t="n">
-        <v>1801.122224999094</v>
+        <v>746.7783366411452</v>
       </c>
       <c r="N25" t="n">
-        <v>2050.297118855865</v>
+        <v>995.9532304979159</v>
       </c>
       <c r="O25" t="n">
-        <v>2277.513197254792</v>
+        <v>1223.169308896842</v>
       </c>
       <c r="P25" t="n">
-        <v>2465.741295969725</v>
+        <v>1411.397407611777</v>
       </c>
       <c r="Q25" t="n">
-        <v>2546.859651812185</v>
+        <v>1492.515763454236</v>
       </c>
       <c r="R25" t="n">
-        <v>2511.867278482326</v>
+        <v>1457.523390124377</v>
       </c>
       <c r="S25" t="n">
-        <v>2407.876516604071</v>
+        <v>1353.532628246122</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.118558387507</v>
+        <v>1227.774670029559</v>
       </c>
       <c r="U25" t="n">
-        <v>2101.612427411651</v>
+        <v>1047.268539053701</v>
       </c>
       <c r="V25" t="n">
-        <v>1947.551702801244</v>
+        <v>893.2078144432949</v>
       </c>
       <c r="W25" t="n">
-        <v>1768.069881149814</v>
+        <v>713.725992791865</v>
       </c>
       <c r="X25" t="n">
-        <v>1643.491996876361</v>
+        <v>589.1481085184118</v>
       </c>
       <c r="Y25" t="n">
-        <v>1528.131417899809</v>
+        <v>473.78752954186</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1504.110773490797</v>
+        <v>1708.464257490877</v>
       </c>
       <c r="C26" t="n">
-        <v>1228.851594654776</v>
+        <v>1495.000979596382</v>
       </c>
       <c r="D26" t="n">
         <v>1228.851594654776</v>
       </c>
       <c r="E26" t="n">
-        <v>940.740454592054</v>
+        <v>940.7404545920541</v>
       </c>
       <c r="F26" t="n">
-        <v>633.2638437333953</v>
+        <v>633.2638437333954</v>
       </c>
       <c r="G26" t="n">
-        <v>324.2238848821718</v>
+        <v>324.2238848821719</v>
       </c>
       <c r="H26" t="n">
         <v>102.065623241876</v>
@@ -6226,13 +6226,13 @@
         <v>50.9371930362437</v>
       </c>
       <c r="J26" t="n">
-        <v>155.33186528488</v>
+        <v>155.3318652848801</v>
       </c>
       <c r="K26" t="n">
-        <v>444.02563533559</v>
+        <v>444.0256353355902</v>
       </c>
       <c r="L26" t="n">
-        <v>852.1457920320287</v>
+        <v>852.145792032029</v>
       </c>
       <c r="M26" t="n">
         <v>1312.407761053182</v>
@@ -6241,7 +6241,7 @@
         <v>1758.846421527933</v>
       </c>
       <c r="O26" t="n">
-        <v>2128.162799782563</v>
+        <v>2128.162799782564</v>
       </c>
       <c r="P26" t="n">
         <v>2411.208324325445</v>
@@ -6253,25 +6253,25 @@
         <v>2546.859651812185</v>
       </c>
       <c r="S26" t="n">
-        <v>2475.179799461335</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="T26" t="n">
-        <v>2475.179799461335</v>
+        <v>2430.880093396477</v>
       </c>
       <c r="U26" t="n">
-        <v>2475.179799461335</v>
+        <v>2282.700492770716</v>
       </c>
       <c r="V26" t="n">
-        <v>2475.179799461335</v>
+        <v>2282.700492770716</v>
       </c>
       <c r="W26" t="n">
-        <v>2219.319449150107</v>
+        <v>2282.700492770716</v>
       </c>
       <c r="X26" t="n">
-        <v>1943.963888502772</v>
+        <v>2282.700492770716</v>
       </c>
       <c r="Y26" t="n">
-        <v>1657.096612909781</v>
+        <v>1995.833217177725</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>50.9371930362437</v>
       </c>
       <c r="K27" t="n">
-        <v>313.4058232591686</v>
+        <v>65.47450623254741</v>
       </c>
       <c r="L27" t="n">
-        <v>723.5707635943916</v>
+        <v>475.6394465677704</v>
       </c>
       <c r="M27" t="n">
-        <v>1249.375916573403</v>
+        <v>1012.419100606999</v>
       </c>
       <c r="N27" t="n">
-        <v>1760.641562696525</v>
+        <v>1576.800617858203</v>
       </c>
       <c r="O27" t="n">
-        <v>2201.432158535147</v>
+        <v>2017.591213696825</v>
       </c>
       <c r="P27" t="n">
-        <v>2542.526354293996</v>
+        <v>2358.685409455674</v>
       </c>
       <c r="Q27" t="n">
         <v>2542.526354293996</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>396.906740688651</v>
+        <v>396.9067406886512</v>
       </c>
       <c r="C28" t="n">
-        <v>333.9653509815024</v>
+        <v>333.9653509815025</v>
       </c>
       <c r="D28" t="n">
-        <v>287.5680376404362</v>
+        <v>287.5680376404363</v>
       </c>
       <c r="E28" t="n">
-        <v>242.2336032329261</v>
+        <v>242.2336032329262</v>
       </c>
       <c r="F28" t="n">
-        <v>196.4275280898743</v>
+        <v>196.4275280898744</v>
       </c>
       <c r="G28" t="n">
-        <v>134.3570521932029</v>
+        <v>134.357052193203</v>
       </c>
       <c r="H28" t="n">
-        <v>83.21216553467301</v>
+        <v>83.21216553467302</v>
       </c>
       <c r="I28" t="n">
         <v>50.9371930362437</v>
       </c>
       <c r="J28" t="n">
-        <v>108.7318568374904</v>
+        <v>108.7318568374903</v>
       </c>
       <c r="K28" t="n">
-        <v>266.7800463495825</v>
+        <v>266.7800463495824</v>
       </c>
       <c r="L28" t="n">
         <v>497.3941077576472</v>
@@ -6420,16 +6420,16 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V28" t="n">
-        <v>893.2078144432945</v>
+        <v>893.2078144432949</v>
       </c>
       <c r="W28" t="n">
-        <v>713.7259927918648</v>
+        <v>713.725992791865</v>
       </c>
       <c r="X28" t="n">
-        <v>589.1481085184116</v>
+        <v>589.1481085184118</v>
       </c>
       <c r="Y28" t="n">
-        <v>473.7875295418598</v>
+        <v>473.78752954186</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1105.568494181463</v>
+        <v>1452.982343285166</v>
       </c>
       <c r="C29" t="n">
-        <v>1105.568494181463</v>
+        <v>1177.723164449144</v>
       </c>
       <c r="D29" t="n">
-        <v>1105.568494181463</v>
+        <v>1177.723164449144</v>
       </c>
       <c r="E29" t="n">
-        <v>817.4573541187414</v>
+        <v>889.6120243864218</v>
       </c>
       <c r="F29" t="n">
-        <v>509.9807432600828</v>
+        <v>582.1354135277631</v>
       </c>
       <c r="G29" t="n">
-        <v>324.2238848821718</v>
+        <v>273.0954546765396</v>
       </c>
       <c r="H29" t="n">
-        <v>102.065623241876</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="I29" t="n">
         <v>50.9371930362437</v>
       </c>
       <c r="J29" t="n">
-        <v>155.3318652848801</v>
+        <v>155.3318652848798</v>
       </c>
       <c r="K29" t="n">
-        <v>444.0256353355902</v>
+        <v>444.0256353355899</v>
       </c>
       <c r="L29" t="n">
-        <v>852.1457920320288</v>
+        <v>852.1457920320286</v>
       </c>
       <c r="M29" t="n">
         <v>1312.407761053182</v>
@@ -6493,22 +6493,22 @@
         <v>2475.179799461335</v>
       </c>
       <c r="T29" t="n">
-        <v>2359.200241045627</v>
+        <v>2475.179799461335</v>
       </c>
       <c r="U29" t="n">
-        <v>2211.020640419866</v>
+        <v>2475.179799461335</v>
       </c>
       <c r="V29" t="n">
-        <v>2211.020640419866</v>
+        <v>2244.875105188447</v>
       </c>
       <c r="W29" t="n">
-        <v>1955.160290108638</v>
+        <v>1989.01475487722</v>
       </c>
       <c r="X29" t="n">
-        <v>1679.804729461302</v>
+        <v>1989.01475487722</v>
       </c>
       <c r="Y29" t="n">
-        <v>1392.937453868311</v>
+        <v>1740.351302972014</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>50.9371930362437</v>
       </c>
       <c r="J30" t="n">
-        <v>130.4862514560598</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="K30" t="n">
-        <v>288.3137275540213</v>
+        <v>65.47450623254741</v>
       </c>
       <c r="L30" t="n">
-        <v>698.4786678892443</v>
+        <v>475.6394465677704</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.258321928473</v>
+        <v>1012.419100606999</v>
       </c>
       <c r="N30" t="n">
-        <v>1799.639839179677</v>
+        <v>1576.800617858203</v>
       </c>
       <c r="O30" t="n">
-        <v>2240.430435018299</v>
+        <v>2017.591213696825</v>
       </c>
       <c r="P30" t="n">
-        <v>2542.526354293996</v>
+        <v>2358.685409455674</v>
       </c>
       <c r="Q30" t="n">
         <v>2542.526354293996</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1451.2506290466</v>
+        <v>396.9067406886508</v>
       </c>
       <c r="C31" t="n">
-        <v>1388.309239339451</v>
+        <v>333.9653509815022</v>
       </c>
       <c r="D31" t="n">
-        <v>1341.911925998385</v>
+        <v>287.568037640436</v>
       </c>
       <c r="E31" t="n">
-        <v>1296.577491590875</v>
+        <v>242.2336032329259</v>
       </c>
       <c r="F31" t="n">
-        <v>1250.771416447823</v>
+        <v>196.427528089874</v>
       </c>
       <c r="G31" t="n">
-        <v>1188.700940551152</v>
+        <v>134.3570521932024</v>
       </c>
       <c r="H31" t="n">
-        <v>1137.556053892622</v>
+        <v>83.21216553467249</v>
       </c>
       <c r="I31" t="n">
-        <v>1105.281081394192</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J31" t="n">
-        <v>1163.075745195439</v>
+        <v>108.7318568374903</v>
       </c>
       <c r="K31" t="n">
-        <v>1321.123934707531</v>
+        <v>266.7800463495823</v>
       </c>
       <c r="L31" t="n">
-        <v>1551.737996115596</v>
+        <v>497.3941077576471</v>
       </c>
       <c r="M31" t="n">
-        <v>1801.122224999094</v>
+        <v>746.778336641145</v>
       </c>
       <c r="N31" t="n">
-        <v>2050.297118855865</v>
+        <v>995.9532304979157</v>
       </c>
       <c r="O31" t="n">
-        <v>2277.513197254792</v>
+        <v>1223.169308896842</v>
       </c>
       <c r="P31" t="n">
-        <v>2465.741295969725</v>
+        <v>1411.397407611776</v>
       </c>
       <c r="Q31" t="n">
-        <v>2546.859651812185</v>
+        <v>1492.515763454236</v>
       </c>
       <c r="R31" t="n">
-        <v>2511.867278482326</v>
+        <v>1457.523390124377</v>
       </c>
       <c r="S31" t="n">
-        <v>2407.876516604071</v>
+        <v>1353.532628246122</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.118558387507</v>
+        <v>1227.774670029559</v>
       </c>
       <c r="U31" t="n">
-        <v>2101.612427411649</v>
+        <v>1047.268539053701</v>
       </c>
       <c r="V31" t="n">
-        <v>1947.551702801243</v>
+        <v>893.2078144432944</v>
       </c>
       <c r="W31" t="n">
-        <v>1768.069881149813</v>
+        <v>713.7259927918647</v>
       </c>
       <c r="X31" t="n">
-        <v>1643.49199687636</v>
+        <v>589.1481085184114</v>
       </c>
       <c r="Y31" t="n">
-        <v>1528.131417899808</v>
+        <v>473.7875295418596</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1770.260158432403</v>
+        <v>1656.594928815923</v>
       </c>
       <c r="C32" t="n">
-        <v>1495.000979596381</v>
+        <v>1381.335749979901</v>
       </c>
       <c r="D32" t="n">
-        <v>1228.851594654776</v>
+        <v>1177.723164449143</v>
       </c>
       <c r="E32" t="n">
-        <v>940.740454592054</v>
+        <v>889.6120243864216</v>
       </c>
       <c r="F32" t="n">
-        <v>633.2638437333953</v>
+        <v>582.135413527763</v>
       </c>
       <c r="G32" t="n">
-        <v>324.2238848821719</v>
+        <v>273.0954546765395</v>
       </c>
       <c r="H32" t="n">
-        <v>102.065623241876</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="I32" t="n">
         <v>50.9371930362437</v>
       </c>
       <c r="J32" t="n">
-        <v>155.33186528488</v>
+        <v>155.3318652848801</v>
       </c>
       <c r="K32" t="n">
         <v>444.0256353355902</v>
@@ -6733,19 +6733,19 @@
         <v>2475.179799461335</v>
       </c>
       <c r="U32" t="n">
-        <v>2327.000198835573</v>
+        <v>2475.179799461335</v>
       </c>
       <c r="V32" t="n">
-        <v>2327.000198835573</v>
+        <v>2475.179799461335</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.139848524345</v>
+        <v>2219.319449150107</v>
       </c>
       <c r="X32" t="n">
-        <v>2071.139848524345</v>
+        <v>1943.963888502771</v>
       </c>
       <c r="Y32" t="n">
-        <v>1784.272572931354</v>
+        <v>1943.963888502771</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>50.9371930362437</v>
       </c>
       <c r="J33" t="n">
-        <v>130.4862514560598</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="K33" t="n">
-        <v>392.9548816789847</v>
+        <v>249.3154510708693</v>
       </c>
       <c r="L33" t="n">
-        <v>803.1198220142078</v>
+        <v>659.4803914060923</v>
       </c>
       <c r="M33" t="n">
-        <v>1339.899476053437</v>
+        <v>1196.260045445321</v>
       </c>
       <c r="N33" t="n">
         <v>1760.641562696525</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>396.9067406886509</v>
+        <v>396.9067406886511</v>
       </c>
       <c r="C34" t="n">
         <v>333.9653509815025</v>
@@ -6861,19 +6861,19 @@
         <v>108.7318568374904</v>
       </c>
       <c r="K34" t="n">
-        <v>266.7800463495825</v>
+        <v>266.7800463495826</v>
       </c>
       <c r="L34" t="n">
-        <v>497.3941077576472</v>
+        <v>497.3941077576474</v>
       </c>
       <c r="M34" t="n">
-        <v>746.7783366411452</v>
+        <v>746.7783366411453</v>
       </c>
       <c r="N34" t="n">
-        <v>995.9532304979159</v>
+        <v>995.953230497916</v>
       </c>
       <c r="O34" t="n">
-        <v>1223.169308896842</v>
+        <v>1223.169308896843</v>
       </c>
       <c r="P34" t="n">
         <v>1411.397407611776</v>
@@ -6894,16 +6894,16 @@
         <v>1047.268539053701</v>
       </c>
       <c r="V34" t="n">
-        <v>893.2078144432945</v>
+        <v>893.2078144432946</v>
       </c>
       <c r="W34" t="n">
-        <v>713.7259927918647</v>
+        <v>713.7259927918648</v>
       </c>
       <c r="X34" t="n">
-        <v>589.1481085184115</v>
+        <v>589.1481085184116</v>
       </c>
       <c r="Y34" t="n">
-        <v>473.7875295418597</v>
+        <v>473.7875295418598</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1162.131075501567</v>
+        <v>1102.615158516889</v>
       </c>
       <c r="C35" t="n">
-        <v>940.740454592054</v>
+        <v>827.355979680867</v>
       </c>
       <c r="D35" t="n">
-        <v>940.740454592054</v>
+        <v>561.2065947392616</v>
       </c>
       <c r="E35" t="n">
-        <v>940.740454592054</v>
+        <v>273.0954546765395</v>
       </c>
       <c r="F35" t="n">
-        <v>633.2638437333953</v>
+        <v>273.0954546765395</v>
       </c>
       <c r="G35" t="n">
-        <v>324.2238848821719</v>
+        <v>273.0954546765395</v>
       </c>
       <c r="H35" t="n">
-        <v>102.065623241876</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="I35" t="n">
         <v>50.9371930362437</v>
       </c>
       <c r="J35" t="n">
-        <v>155.3318652848798</v>
+        <v>155.3318652848802</v>
       </c>
       <c r="K35" t="n">
-        <v>444.0256353355899</v>
+        <v>444.0256353355903</v>
       </c>
       <c r="L35" t="n">
-        <v>852.1457920320286</v>
+        <v>852.1457920320289</v>
       </c>
       <c r="M35" t="n">
         <v>1312.407761053182</v>
@@ -6952,7 +6952,7 @@
         <v>1758.846421527933</v>
       </c>
       <c r="O35" t="n">
-        <v>2128.162799782563</v>
+        <v>2128.162799782564</v>
       </c>
       <c r="P35" t="n">
         <v>2411.208324325445</v>
@@ -6982,7 +6982,7 @@
         <v>1449.500035188415</v>
       </c>
       <c r="Y35" t="n">
-        <v>1449.500035188415</v>
+        <v>1162.632759595424</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>50.9371930362437</v>
       </c>
       <c r="J36" t="n">
-        <v>50.9371930362437</v>
+        <v>111.1913395693499</v>
       </c>
       <c r="K36" t="n">
-        <v>228.0010640616169</v>
+        <v>111.1913395693499</v>
       </c>
       <c r="L36" t="n">
-        <v>593.8229092317325</v>
+        <v>477.0131847394655</v>
       </c>
       <c r="M36" t="n">
-        <v>1130.602563270961</v>
+        <v>1012.419100606999</v>
       </c>
       <c r="N36" t="n">
-        <v>1641.868209394083</v>
+        <v>1576.800617858203</v>
       </c>
       <c r="O36" t="n">
-        <v>2082.658805232705</v>
+        <v>2017.591213696825</v>
       </c>
       <c r="P36" t="n">
-        <v>2384.754724508402</v>
+        <v>2358.685409455674</v>
       </c>
       <c r="Q36" t="n">
         <v>2542.526354293996</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>396.9067406886504</v>
+        <v>396.9067406886513</v>
       </c>
       <c r="C37" t="n">
-        <v>333.9653509815018</v>
+        <v>333.9653509815027</v>
       </c>
       <c r="D37" t="n">
-        <v>287.5680376404356</v>
+        <v>287.5680376404365</v>
       </c>
       <c r="E37" t="n">
-        <v>242.2336032329255</v>
+        <v>242.2336032329264</v>
       </c>
       <c r="F37" t="n">
-        <v>196.4275280898737</v>
+        <v>196.4275280898746</v>
       </c>
       <c r="G37" t="n">
-        <v>134.3570521932023</v>
+        <v>134.3570521932029</v>
       </c>
       <c r="H37" t="n">
         <v>83.21216553467301</v>
@@ -7095,19 +7095,19 @@
         <v>50.9371930362437</v>
       </c>
       <c r="J37" t="n">
-        <v>108.7318568374903</v>
+        <v>108.7318568374904</v>
       </c>
       <c r="K37" t="n">
-        <v>266.7800463495824</v>
+        <v>266.7800463495825</v>
       </c>
       <c r="L37" t="n">
-        <v>497.3941077576471</v>
+        <v>497.3941077576472</v>
       </c>
       <c r="M37" t="n">
-        <v>746.778336641145</v>
+        <v>746.7783366411452</v>
       </c>
       <c r="N37" t="n">
-        <v>995.9532304979157</v>
+        <v>995.9532304979159</v>
       </c>
       <c r="O37" t="n">
         <v>1223.169308896842</v>
@@ -7119,7 +7119,7 @@
         <v>1492.515763454236</v>
       </c>
       <c r="R37" t="n">
-        <v>1457.523390124376</v>
+        <v>1457.523390124377</v>
       </c>
       <c r="S37" t="n">
         <v>1353.532628246122</v>
@@ -7128,19 +7128,19 @@
         <v>1227.774670029559</v>
       </c>
       <c r="U37" t="n">
-        <v>1047.2685390537</v>
+        <v>1047.268539053701</v>
       </c>
       <c r="V37" t="n">
-        <v>893.207814443294</v>
+        <v>893.2078144432949</v>
       </c>
       <c r="W37" t="n">
-        <v>713.7259927918642</v>
+        <v>713.7259927918651</v>
       </c>
       <c r="X37" t="n">
-        <v>589.148108518411</v>
+        <v>589.148108518412</v>
       </c>
       <c r="Y37" t="n">
-        <v>473.7875295418592</v>
+        <v>473.7875295418601</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1131.124150219803</v>
+        <v>875.2637999085757</v>
       </c>
       <c r="C38" t="n">
-        <v>919.8116358035526</v>
+        <v>600.0046210725541</v>
       </c>
       <c r="D38" t="n">
-        <v>919.8116358035526</v>
+        <v>333.8552361309487</v>
       </c>
       <c r="E38" t="n">
-        <v>631.7004957408305</v>
+        <v>273.0954546765395</v>
       </c>
       <c r="F38" t="n">
-        <v>324.2238848821719</v>
+        <v>273.0954546765395</v>
       </c>
       <c r="G38" t="n">
-        <v>324.2238848821719</v>
+        <v>273.0954546765395</v>
       </c>
       <c r="H38" t="n">
-        <v>102.065623241876</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="I38" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J38" t="n">
-        <v>155.3318652848798</v>
+        <v>155.3318652848802</v>
       </c>
       <c r="K38" t="n">
-        <v>444.0256353355899</v>
+        <v>444.0256353355903</v>
       </c>
       <c r="L38" t="n">
-        <v>852.1457920320288</v>
+        <v>852.1457920320289</v>
       </c>
       <c r="M38" t="n">
         <v>1312.407761053182</v>
@@ -7192,34 +7192,34 @@
         <v>2128.162799782564</v>
       </c>
       <c r="P38" t="n">
-        <v>2411.208324325444</v>
+        <v>2411.208324325445</v>
       </c>
       <c r="Q38" t="n">
-        <v>2546.859651812184</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="R38" t="n">
-        <v>2546.859651812184</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="S38" t="n">
-        <v>2475.179799461334</v>
+        <v>2475.179799461335</v>
       </c>
       <c r="T38" t="n">
         <v>2359.200241045627</v>
       </c>
       <c r="U38" t="n">
-        <v>2211.020640419865</v>
+        <v>2211.020640419866</v>
       </c>
       <c r="V38" t="n">
         <v>1980.715946146978</v>
       </c>
       <c r="W38" t="n">
-        <v>1980.715946146978</v>
+        <v>1724.85559583575</v>
       </c>
       <c r="X38" t="n">
-        <v>1705.360385499642</v>
+        <v>1449.500035188415</v>
       </c>
       <c r="Y38" t="n">
-        <v>1418.493109906651</v>
+        <v>1162.632759595424</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>338.5907734748992</v>
       </c>
       <c r="G39" t="n">
-        <v>210.0706464752943</v>
+        <v>210.0706464752944</v>
       </c>
       <c r="H39" t="n">
         <v>112.1452333009286</v>
       </c>
       <c r="I39" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J39" t="n">
-        <v>111.1913395693498</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="K39" t="n">
-        <v>111.1913395693498</v>
+        <v>249.3154510708693</v>
       </c>
       <c r="L39" t="n">
-        <v>521.3562799045728</v>
+        <v>659.4803914060923</v>
       </c>
       <c r="M39" t="n">
-        <v>1058.135933943801</v>
+        <v>1196.260045445321</v>
       </c>
       <c r="N39" t="n">
-        <v>1622.517451195005</v>
+        <v>1760.641562696525</v>
       </c>
       <c r="O39" t="n">
-        <v>2063.308047033627</v>
+        <v>2201.432158535147</v>
       </c>
       <c r="P39" t="n">
-        <v>2404.402242792476</v>
+        <v>2542.526354293996</v>
       </c>
       <c r="Q39" t="n">
         <v>2542.526354293996</v>
@@ -7329,25 +7329,25 @@
         <v>83.21216553467301</v>
       </c>
       <c r="I40" t="n">
-        <v>50.93719303624369</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J40" t="n">
-        <v>108.7318568374903</v>
+        <v>108.7318568374904</v>
       </c>
       <c r="K40" t="n">
-        <v>266.7800463495824</v>
+        <v>266.7800463495827</v>
       </c>
       <c r="L40" t="n">
-        <v>497.3941077576472</v>
+        <v>497.3941077576475</v>
       </c>
       <c r="M40" t="n">
-        <v>746.7783366411452</v>
+        <v>746.7783366411454</v>
       </c>
       <c r="N40" t="n">
-        <v>995.9532304979159</v>
+        <v>995.9532304979161</v>
       </c>
       <c r="O40" t="n">
-        <v>1223.169308896842</v>
+        <v>1223.169308896843</v>
       </c>
       <c r="P40" t="n">
         <v>1411.397407611776</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.5212995060854</v>
+        <v>1759.274256870004</v>
       </c>
       <c r="C41" t="n">
-        <v>50.9371930362437</v>
+        <v>1648.412607075138</v>
       </c>
       <c r="D41" t="n">
-        <v>50.9371930362437</v>
+        <v>1275.588642302361</v>
       </c>
       <c r="E41" t="n">
-        <v>50.9371930362437</v>
+        <v>880.802922408468</v>
       </c>
       <c r="F41" t="n">
-        <v>50.9371930362437</v>
+        <v>466.6517317186383</v>
       </c>
       <c r="G41" t="n">
         <v>50.9371930362437</v>
@@ -7414,10 +7414,10 @@
         <v>155.3318652848799</v>
       </c>
       <c r="K41" t="n">
-        <v>444.0256353355901</v>
+        <v>444.02563533559</v>
       </c>
       <c r="L41" t="n">
-        <v>852.1457920320288</v>
+        <v>852.1457920320286</v>
       </c>
       <c r="M41" t="n">
         <v>1312.407761053182</v>
@@ -7438,25 +7438,25 @@
         <v>2546.859651812185</v>
       </c>
       <c r="S41" t="n">
-        <v>2368.505219630164</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="T41" t="n">
-        <v>2368.505219630164</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="U41" t="n">
-        <v>2113.651039173231</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="V41" t="n">
-        <v>1776.671765069172</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="W41" t="n">
-        <v>1414.136834926773</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="X41" t="n">
-        <v>1032.106694448267</v>
+        <v>2546.859651812185</v>
       </c>
       <c r="Y41" t="n">
-        <v>638.5648390241046</v>
+        <v>2153.317796388023</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>925.1881887551756</v>
+        <v>920.8548912369869</v>
       </c>
       <c r="C42" t="n">
-        <v>763.4845159961303</v>
+        <v>759.1512184779416</v>
       </c>
       <c r="D42" t="n">
-        <v>624.6458789863424</v>
+        <v>620.3125814681537</v>
       </c>
       <c r="E42" t="n">
-        <v>477.6178690432136</v>
+        <v>473.2845715250248</v>
       </c>
       <c r="F42" t="n">
-        <v>342.924070993088</v>
+        <v>338.5907734748992</v>
       </c>
       <c r="G42" t="n">
-        <v>214.4039439934831</v>
+        <v>210.0706464752944</v>
       </c>
       <c r="H42" t="n">
-        <v>116.4785308191174</v>
+        <v>112.1452333009286</v>
       </c>
       <c r="I42" t="n">
-        <v>55.27049055443247</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="J42" t="n">
-        <v>134.8195489742486</v>
+        <v>50.9371930362437</v>
       </c>
       <c r="K42" t="n">
-        <v>364.3101015344373</v>
+        <v>249.3154510708693</v>
       </c>
       <c r="L42" t="n">
-        <v>730.1319467045529</v>
+        <v>659.4803914060923</v>
       </c>
       <c r="M42" t="n">
-        <v>1215.165300214779</v>
+        <v>1196.260045445321</v>
       </c>
       <c r="N42" t="n">
-        <v>1668.722836914015</v>
+        <v>1760.641562696525</v>
       </c>
       <c r="O42" t="n">
-        <v>2060.922787698166</v>
+        <v>2201.432158535147</v>
       </c>
       <c r="P42" t="n">
-        <v>2363.018706973863</v>
+        <v>2542.526354293996</v>
       </c>
       <c r="Q42" t="n">
-        <v>2546.859651812185</v>
+        <v>2542.526354293996</v>
       </c>
       <c r="R42" t="n">
-        <v>2500.012785819311</v>
+        <v>2495.679488301122</v>
       </c>
       <c r="S42" t="n">
-        <v>2351.083735490223</v>
+        <v>2346.750437972034</v>
       </c>
       <c r="T42" t="n">
-        <v>2163.238520980615</v>
+        <v>2158.905223462426</v>
       </c>
       <c r="U42" t="n">
-        <v>1944.757437327419</v>
+        <v>1940.42413980923</v>
       </c>
       <c r="V42" t="n">
-        <v>1716.361814775753</v>
+        <v>1712.028517257564</v>
       </c>
       <c r="W42" t="n">
-        <v>1475.045946009063</v>
+        <v>1470.712648490874</v>
       </c>
       <c r="X42" t="n">
-        <v>1277.128957886858</v>
+        <v>1272.795660368669</v>
       </c>
       <c r="Y42" t="n">
-        <v>1084.607631536436</v>
+        <v>1080.274334018248</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>373.6250557468007</v>
+        <v>358.6318010936865</v>
       </c>
       <c r="C43" t="n">
-        <v>204.009086208481</v>
+        <v>358.6318010936865</v>
       </c>
       <c r="D43" t="n">
-        <v>50.9371930362437</v>
+        <v>358.6318010936865</v>
       </c>
       <c r="E43" t="n">
-        <v>50.9371930362437</v>
+        <v>358.6318010936865</v>
       </c>
       <c r="F43" t="n">
-        <v>50.9371930362437</v>
+        <v>358.6318010936865</v>
       </c>
       <c r="G43" t="n">
-        <v>50.9371930362437</v>
+        <v>189.8867453658441</v>
       </c>
       <c r="H43" t="n">
-        <v>50.9371930362437</v>
+        <v>189.8867453658441</v>
       </c>
       <c r="I43" t="n">
         <v>50.9371930362437</v>
@@ -7596,25 +7596,25 @@
         <v>726.292209655345</v>
       </c>
       <c r="S43" t="n">
-        <v>726.292209655345</v>
+        <v>589.8842651983108</v>
       </c>
       <c r="T43" t="n">
-        <v>726.292209655345</v>
+        <v>589.8842651983108</v>
       </c>
       <c r="U43" t="n">
-        <v>726.292209655345</v>
+        <v>589.8842651983108</v>
       </c>
       <c r="V43" t="n">
-        <v>726.292209655345</v>
+        <v>589.8842651983108</v>
       </c>
       <c r="W43" t="n">
-        <v>726.292209655345</v>
+        <v>589.8842651983108</v>
       </c>
       <c r="X43" t="n">
-        <v>726.292209655345</v>
+        <v>358.6318010936865</v>
       </c>
       <c r="Y43" t="n">
-        <v>557.1804244311805</v>
+        <v>358.6318010936865</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>752.593999280487</v>
+        <v>743.2779240476364</v>
       </c>
       <c r="C44" t="n">
-        <v>752.593999280487</v>
+        <v>743.2779240476364</v>
       </c>
       <c r="D44" t="n">
-        <v>379.7700345077106</v>
+        <v>537.573044544514</v>
       </c>
       <c r="E44" t="n">
-        <v>379.7700345077106</v>
+        <v>537.573044544514</v>
       </c>
       <c r="F44" t="n">
-        <v>379.7700345077106</v>
+        <v>537.573044544514</v>
       </c>
       <c r="G44" t="n">
-        <v>379.7700345077106</v>
+        <v>537.573044544514</v>
       </c>
       <c r="H44" t="n">
-        <v>50.9371930362437</v>
+        <v>208.740203073047</v>
       </c>
       <c r="I44" t="n">
         <v>50.9371930362437</v>
@@ -7672,28 +7672,28 @@
         <v>2546.859651812185</v>
       </c>
       <c r="R44" t="n">
-        <v>2546.859651812185</v>
+        <v>2480.685019658434</v>
       </c>
       <c r="S44" t="n">
-        <v>2546.859651812185</v>
+        <v>2302.330587476412</v>
       </c>
       <c r="T44" t="n">
-        <v>2324.205513565306</v>
+        <v>2079.676449229533</v>
       </c>
       <c r="U44" t="n">
-        <v>2069.351333108373</v>
+        <v>1824.822268772601</v>
       </c>
       <c r="V44" t="n">
-        <v>1732.372059004314</v>
+        <v>1487.842994668542</v>
       </c>
       <c r="W44" t="n">
-        <v>1369.837128861916</v>
+        <v>1125.308064526143</v>
       </c>
       <c r="X44" t="n">
-        <v>1369.837128861916</v>
+        <v>743.2779240476364</v>
       </c>
       <c r="Y44" t="n">
-        <v>1146.637538798506</v>
+        <v>743.2779240476364</v>
       </c>
     </row>
     <row r="45">
@@ -7730,7 +7730,7 @@
         <v>50.9371930362437</v>
       </c>
       <c r="K45" t="n">
-        <v>109.817601397655</v>
+        <v>65.47450623254764</v>
       </c>
       <c r="L45" t="n">
         <v>475.6394465677706</v>
@@ -7839,16 +7839,16 @@
         <v>726.292209655345</v>
       </c>
       <c r="U46" t="n">
-        <v>726.292209655345</v>
+        <v>439.1114988483162</v>
       </c>
       <c r="V46" t="n">
-        <v>726.292209655345</v>
+        <v>178.3761944067388</v>
       </c>
       <c r="W46" t="n">
-        <v>440.1358081727441</v>
+        <v>178.3761944067388</v>
       </c>
       <c r="X46" t="n">
-        <v>272.9723518439666</v>
+        <v>178.3761944067388</v>
       </c>
       <c r="Y46" t="n">
         <v>50.9371930362437</v>
@@ -8057,10 +8057,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8072,13 +8072,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>222.1494342538443</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8294,7 +8294,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8306,16 +8306,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>394.1362801165803</v>
+        <v>570.0697896776412</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8531,19 +8531,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>376.4077763449607</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>565.082144790401</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8771,7 +8771,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>111.9961691666667</v>
+        <v>225.4148544380359</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -9017,13 +9017,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>346.0092236987865</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>246.5301859026216</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9245,7 +9245,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>343.1175545751262</v>
+        <v>237.1961690629201</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9482,13 +9482,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>176.3333947870556</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>380.5497103605016</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9716,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>83.56576168009096</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>237.1961690629203</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9728,7 +9728,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>478.6307983945621</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9953,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>83.56576168009096</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>126.6803239104078</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9974,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.40254997749079</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>271.4178621949106</v>
+        <v>126.6803239104078</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.40254997749079</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,10 +10427,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>312.3782479895208</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10439,7 +10439,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>531.7071477778989</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.40254997749079</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>83.56576168009096</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>290.8485641417911</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>78.68497960834725</v>
+        <v>312.3782479895208</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>226.9218545244803</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11138,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>312.3782479895208</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11150,7 +11150,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>564.8540670265322</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11159,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11314,7 +11314,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229273</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11378,7 +11378,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>138.1601395693687</v>
+        <v>126.680323910408</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>284.4952700899796</v>
       </c>
       <c r="C11" t="n">
-        <v>272.5065870476614</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>305.9495592627113</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>219.9366790238929</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>50.61714590357597</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>87.65356960432396</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>58.39529488027887</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>272.6020050408622</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>284.4952700899796</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>272.5065870476614</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>285.2300286620948</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>305.9495592627113</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>11.60296274883757</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>43.81450913885374</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>283.998602837061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>285.2300286620949</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>125.973355229908</v>
       </c>
       <c r="H17" t="n">
         <v>219.9366790238929</v>
       </c>
       <c r="I17" t="n">
-        <v>50.61714590357597</v>
+        <v>50.61714590357599</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>114.8197628315509</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>146.6978046195039</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>228.0016473301587</v>
       </c>
       <c r="W17" t="n">
-        <v>215.4427785174748</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>220.4472101376929</v>
       </c>
       <c r="D20" t="n">
-        <v>263.4878910921893</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>247.6765573073667</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>219.9366790238929</v>
       </c>
       <c r="I20" t="n">
-        <v>50.61714590357597</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.9630538273417</v>
+        <v>70.96305382734171</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>146.6978046195039</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>228.0016473301587</v>
       </c>
       <c r="W20" t="n">
-        <v>253.3017468081156</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>98.64258920093027</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>305.9495592627113</v>
@@ -24226,7 +24226,7 @@
         <v>219.9366790238929</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>27.67953537358964</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.96305382734171</v>
       </c>
       <c r="T23" t="n">
         <v>114.8197628315509</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>133.039289065186</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>61.17794193211117</v>
       </c>
       <c r="D26" t="n">
-        <v>263.4878910921893</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.9630538273417</v>
       </c>
       <c r="T26" t="n">
-        <v>114.8197628315508</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>146.6978046195039</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>228.0016473301587</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>253.3017468081156</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>272.6020050408623</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>272.5065870476613</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>263.4878910921893</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>122.0502694685794</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>50.61714590357598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>114.8197628315509</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>146.6978046195039</v>
       </c>
       <c r="V29" t="n">
-        <v>228.0016473301587</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>272.6020050408623</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>37.82178545090721</v>
       </c>
     </row>
     <row r="30">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>270.6229797360176</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>61.91143141673894</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>50.61714590357597</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>114.8197628315509</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>146.6978046195039</v>
       </c>
       <c r="V32" t="n">
         <v>228.0016473301587</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>272.6020050408622</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>283.998602837061</v>
       </c>
     </row>
     <row r="33">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>225.0778450222299</v>
       </c>
       <c r="C35" t="n">
-        <v>53.32987234724393</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>263.4878910921893</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>285.2300286620948</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>304.401844750072</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>305.9495592627113</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>50.61714590357597</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>283.998602837061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>63.30719777557331</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>263.4878910921893</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>225.0778450222297</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>304.401844750072</v>
       </c>
       <c r="G38" t="n">
         <v>305.9495592627113</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>50.61714590357597</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>253.3017468081156</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>186.4661556753774</v>
+        <v>268.3613877836031</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.5573932955706</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>325.5445130567522</v>
@@ -25678,22 +25678,22 @@
         <v>65.51288583221375</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>176.5708878602011</v>
       </c>
       <c r="T41" t="n">
         <v>220.4275968644102</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.3056386523632</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -25800,13 +25800,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>167.057605170564</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.241271824804</v>
       </c>
       <c r="I43" t="n">
-        <v>137.5600568063044</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>47.22938574877182</v>
@@ -25836,7 +25836,7 @@
         <v>140.25028362942</v>
       </c>
       <c r="S43" t="n">
-        <v>208.5586882923314</v>
+        <v>73.51482327986758</v>
       </c>
       <c r="T43" t="n">
         <v>230.1082126672571</v>
@@ -25851,10 +25851,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.39413984772287</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>165.4478944169576</v>
       </c>
       <c r="E44" t="n">
         <v>390.8378626949542</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>156.2249799364353</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.51288583221375</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>176.5708878602011</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>168.638842707145</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -26079,19 +26079,19 @@
         <v>230.1082126672571</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3089036989585</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>63.44811769808828</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>93.65019586285551</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>644812.6598977898</v>
+        <v>644812.6598977897</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644812.6598977898</v>
+        <v>644812.6598977897</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>467424.4412998239</v>
+        <v>467424.4412998238</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>633289.8499077002</v>
+        <v>633289.8499077</v>
       </c>
       <c r="C2" t="n">
+        <v>633289.8499077001</v>
+      </c>
+      <c r="D2" t="n">
         <v>633289.8499076999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>633289.8499077001</v>
       </c>
       <c r="E2" t="n">
         <v>575103.1831520827</v>
       </c>
       <c r="F2" t="n">
-        <v>575103.1831520828</v>
+        <v>575103.1831520824</v>
       </c>
       <c r="G2" t="n">
-        <v>575103.1831520825</v>
+        <v>575103.1831520824</v>
       </c>
       <c r="H2" t="n">
-        <v>575103.1831520825</v>
+        <v>575103.1831520824</v>
       </c>
       <c r="I2" t="n">
-        <v>575103.1831520825</v>
+        <v>575103.1831520821</v>
       </c>
       <c r="J2" t="n">
         <v>575103.1831520827</v>
       </c>
       <c r="K2" t="n">
-        <v>575103.183152083</v>
+        <v>575103.1831520825</v>
       </c>
       <c r="L2" t="n">
-        <v>575103.1831520827</v>
+        <v>575103.1831520823</v>
       </c>
       <c r="M2" t="n">
-        <v>575103.1831520824</v>
+        <v>575103.1831520826</v>
       </c>
       <c r="N2" t="n">
-        <v>575103.1831520821</v>
+        <v>575103.1831520826</v>
       </c>
       <c r="O2" t="n">
+        <v>416892.0692674104</v>
+      </c>
+      <c r="P2" t="n">
         <v>416892.0692674103</v>
-      </c>
-      <c r="P2" t="n">
-        <v>416892.0692674104</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27764.24419951029</v>
+        <v>27764.24419951027</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>185775.7593332931</v>
       </c>
       <c r="C4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
-        <v>110181.0909843705</v>
+        <v>110181.0909843706</v>
       </c>
       <c r="F4" t="n">
         <v>110181.0909843705</v>
@@ -26441,16 +26441,16 @@
         <v>110181.0909843705</v>
       </c>
       <c r="J4" t="n">
-        <v>110181.0909843706</v>
+        <v>110181.0909843705</v>
       </c>
       <c r="K4" t="n">
         <v>110181.0909843705</v>
       </c>
       <c r="L4" t="n">
-        <v>110181.0909843706</v>
+        <v>110181.0909843705</v>
       </c>
       <c r="M4" t="n">
-        <v>110181.0909843706</v>
+        <v>110181.0909843705</v>
       </c>
       <c r="N4" t="n">
         <v>110181.0909843705</v>
@@ -26459,7 +26459,7 @@
         <v>485.6474675072001</v>
       </c>
       <c r="P4" t="n">
-        <v>485.6474675072</v>
+        <v>485.6474675072001</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>49681.37132418709</v>
+        <v>49681.37132418708</v>
       </c>
       <c r="F5" t="n">
-        <v>49681.37132418709</v>
+        <v>49681.37132418708</v>
       </c>
       <c r="G5" t="n">
-        <v>49681.37132418709</v>
+        <v>49681.37132418708</v>
       </c>
       <c r="H5" t="n">
-        <v>49681.37132418709</v>
+        <v>49681.37132418707</v>
       </c>
       <c r="I5" t="n">
-        <v>49681.37132418708</v>
+        <v>49681.37132418707</v>
       </c>
       <c r="J5" t="n">
         <v>49681.37132418709</v>
@@ -26505,7 +26505,7 @@
         <v>49681.37132418709</v>
       </c>
       <c r="N5" t="n">
-        <v>49681.37132418707</v>
+        <v>49681.37132418709</v>
       </c>
       <c r="O5" t="n">
         <v>40803.02632487864</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205906.8712199683</v>
+        <v>205906.8712199681</v>
       </c>
       <c r="C6" t="n">
+        <v>381948.0559374955</v>
+      </c>
+      <c r="D6" t="n">
         <v>381948.0559374953</v>
       </c>
-      <c r="D6" t="n">
-        <v>381948.0559374955</v>
-      </c>
       <c r="E6" t="n">
-        <v>220437.8744985788</v>
+        <v>218674.642172651</v>
       </c>
       <c r="F6" t="n">
-        <v>415240.7208435253</v>
+        <v>413477.4885175969</v>
       </c>
       <c r="G6" t="n">
-        <v>415240.7208435249</v>
+        <v>413477.4885175969</v>
       </c>
       <c r="H6" t="n">
-        <v>415240.7208435249</v>
+        <v>413477.4885175969</v>
       </c>
       <c r="I6" t="n">
-        <v>415240.7208435249</v>
+        <v>413477.4885175967</v>
       </c>
       <c r="J6" t="n">
-        <v>193312.0228254605</v>
+        <v>191548.7904995327</v>
       </c>
       <c r="K6" t="n">
-        <v>415240.7208435253</v>
+        <v>413477.488517597</v>
       </c>
       <c r="L6" t="n">
-        <v>415240.7208435251</v>
+        <v>413477.4885175968</v>
       </c>
       <c r="M6" t="n">
-        <v>387476.4766440145</v>
+        <v>385713.2443180868</v>
       </c>
       <c r="N6" t="n">
-        <v>415240.7208435246</v>
+        <v>413477.4885175971</v>
       </c>
       <c r="O6" t="n">
-        <v>375603.3954750245</v>
+        <v>369045.8869707734</v>
       </c>
       <c r="P6" t="n">
-        <v>375603.3954750245</v>
+        <v>369045.8869707732</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="F2" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="G2" t="n">
         <v>105.6078340328593</v>
@@ -26709,10 +26709,10 @@
         <v>105.6078340328593</v>
       </c>
       <c r="J2" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="K2" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="L2" t="n">
         <v>105.6078340328594</v>
@@ -26752,28 +26752,28 @@
         <v>95.90640446483579</v>
       </c>
       <c r="G3" t="n">
-        <v>95.90640446483589</v>
+        <v>95.90640446483579</v>
       </c>
       <c r="H3" t="n">
-        <v>95.90640446483589</v>
+        <v>95.9064044648357</v>
       </c>
       <c r="I3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483573</v>
       </c>
       <c r="J3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483582</v>
       </c>
       <c r="K3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483582</v>
       </c>
       <c r="L3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483582</v>
       </c>
       <c r="M3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483582</v>
       </c>
       <c r="N3" t="n">
-        <v>95.90640446483577</v>
+        <v>95.90640446483582</v>
       </c>
       <c r="O3" t="n">
         <v>95.90640446483579</v>
@@ -26798,19 +26798,19 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>636.7149129530462</v>
+        <v>636.7149129530461</v>
       </c>
       <c r="F4" t="n">
-        <v>636.7149129530462</v>
+        <v>636.7149129530461</v>
       </c>
       <c r="G4" t="n">
-        <v>636.7149129530462</v>
+        <v>636.7149129530461</v>
       </c>
       <c r="H4" t="n">
-        <v>636.7149129530462</v>
+        <v>636.7149129530461</v>
       </c>
       <c r="I4" t="n">
-        <v>636.7149129530462</v>
+        <v>636.7149129530461</v>
       </c>
       <c r="J4" t="n">
         <v>636.7149129530462</v>
@@ -26825,7 +26825,7 @@
         <v>636.7149129530462</v>
       </c>
       <c r="N4" t="n">
-        <v>636.7149129530461</v>
+        <v>636.7149129530462</v>
       </c>
       <c r="O4" t="n">
         <v>636.7149129530462</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>111.4117116880559</v>
+        <v>111.4117116880558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>111.4117116880559</v>
+        <v>111.4117116880558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>111.4117116880559</v>
+        <v>111.4117116880558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>322.9990908068729</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -27438,13 +27438,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>222.8297282012944</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>20.02201280110233</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,13 +27469,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>18.02492893200062</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27520,10 +27520,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>153.7501749317245</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27593,16 +27593,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>377.3720178950622</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>133.4984497724809</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27697,16 +27697,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>38.50770056809694</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.09433375120726</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27782,22 +27782,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>123.6564858706664</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4884972741916158</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27918,10 +27918,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>139.7227062473902</v>
       </c>
       <c r="Y8" t="n">
-        <v>63.64759144882601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>95.13598719576729</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>43.3593002612538</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>124.9310703838087</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28067,13 +28067,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>40.87452179009284</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="C11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="D11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="E11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="F11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="G11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="H11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="I11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>65.51288583221375</v>
       </c>
       <c r="S11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="T11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="U11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="V11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="W11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="X11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="Y11" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="C13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="D13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="E13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="F13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="G13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="H13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="I13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="J13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="K13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="L13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="M13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="N13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="P13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="R13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="S13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="T13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="V13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="W13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="X13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="C14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="D14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="E14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="F14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="G14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="H14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="I14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>65.51288583221375</v>
       </c>
       <c r="S14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="T14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="U14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="V14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="W14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="X14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="Y14" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="C16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="D16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="E16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="F16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="G16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="I16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="J16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="K16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="L16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="M16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="N16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="P16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="R16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="S16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="T16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="V16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="W16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="X16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="Y16" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328594</v>
       </c>
     </row>
     <row r="17">
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.51288583221373</v>
+        <v>65.51288583221375</v>
       </c>
       <c r="S17" t="n">
         <v>105.6078340328593</v>
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.51288583221373</v>
+        <v>65.51288583221378</v>
       </c>
       <c r="S20" t="n">
         <v>105.6078340328593</v>
@@ -28988,7 +28988,7 @@
         <v>105.6078340328593</v>
       </c>
       <c r="L22" t="n">
-        <v>105.6078340328593</v>
+        <v>105.60783403286</v>
       </c>
       <c r="M22" t="n">
         <v>105.6078340328593</v>
@@ -29085,7 +29085,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.51288583221375</v>
+        <v>65.51288583221377</v>
       </c>
       <c r="S23" t="n">
         <v>105.6078340328593</v>
@@ -29237,7 +29237,7 @@
         <v>105.6078340328593</v>
       </c>
       <c r="P25" t="n">
-        <v>105.6078340328593</v>
+        <v>105.6078340328597</v>
       </c>
       <c r="Q25" t="n">
         <v>105.6078340328593</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="C26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="D26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="E26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="F26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="G26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="H26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="I26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>65.51288583221375</v>
       </c>
       <c r="S26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="T26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="U26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="V26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="W26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="X26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="Y26" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="C28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="D28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="E28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="F28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="G28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="H28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="I28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="J28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="K28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="L28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="M28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="N28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="O28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="P28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="Q28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="R28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="S28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="T28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="V28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="W28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="X28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="C29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="D29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="E29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="F29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="G29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="H29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="I29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>65.51288583221375</v>
       </c>
       <c r="S29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="T29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="U29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="V29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="W29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="X29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="Y29" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="C31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="D31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="E31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="F31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="G31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="H31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="I31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="J31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="K31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="L31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="M31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="N31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="P31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="Q31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="R31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="S31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="T31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="U31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="V31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="W31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="X31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
     </row>
     <row r="32">
@@ -29948,7 +29948,7 @@
         <v>105.6078340328594</v>
       </c>
       <c r="P34" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328593</v>
       </c>
       <c r="Q34" t="n">
         <v>105.6078340328594</v>
@@ -30407,7 +30407,7 @@
         <v>105.6078340328594</v>
       </c>
       <c r="K40" t="n">
-        <v>105.6078340328594</v>
+        <v>105.6078340328595</v>
       </c>
       <c r="L40" t="n">
         <v>105.6078340328594</v>
@@ -30425,7 +30425,7 @@
         <v>105.6078340328594</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.6078340328597</v>
+        <v>105.6078340328594</v>
       </c>
       <c r="R40" t="n">
         <v>105.6078340328594</v>
@@ -31846,7 +31846,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>44.79100521728015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>52.2689904333355</v>
@@ -31855,13 +31855,13 @@
         <v>53.65239507887073</v>
       </c>
       <c r="O12" t="n">
-        <v>42.29503858668767</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.33264146740171</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>12.80802888305864</v>
@@ -32077,28 +32077,28 @@
         <v>7.102502594801519</v>
       </c>
       <c r="J15" t="n">
-        <v>19.48980998657574</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>33.31118955831943</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.79100521728015</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>52.2689904333355</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>53.65239507887073</v>
       </c>
       <c r="O15" t="n">
         <v>49.08145965098063</v>
       </c>
       <c r="P15" t="n">
-        <v>39.39219846783039</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.33264146740171</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>12.80802888305864</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3855533847832596</v>
+        <v>0.3855533847832592</v>
       </c>
       <c r="H17" t="n">
-        <v>3.948548601911558</v>
+        <v>3.948548601911554</v>
       </c>
       <c r="I17" t="n">
-        <v>14.86404686685663</v>
+        <v>14.86404686685661</v>
       </c>
       <c r="J17" t="n">
-        <v>32.72336159174821</v>
+        <v>32.72336159174817</v>
       </c>
       <c r="K17" t="n">
-        <v>49.04383636962359</v>
+        <v>49.04383636962354</v>
       </c>
       <c r="L17" t="n">
-        <v>60.84321576918428</v>
+        <v>60.84321576918422</v>
       </c>
       <c r="M17" t="n">
-        <v>67.69980077582358</v>
+        <v>67.6998007758235</v>
       </c>
       <c r="N17" t="n">
-        <v>68.79525433033902</v>
+        <v>68.79525433033895</v>
       </c>
       <c r="O17" t="n">
-        <v>64.96140786040047</v>
+        <v>64.96140786040041</v>
       </c>
       <c r="P17" t="n">
-        <v>55.44305867356375</v>
+        <v>55.44305867356369</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.63542808101325</v>
+        <v>41.63542808101321</v>
       </c>
       <c r="R17" t="n">
-        <v>24.21901780689145</v>
+        <v>24.21901780689143</v>
       </c>
       <c r="S17" t="n">
-        <v>8.785797755748536</v>
+        <v>8.785797755748527</v>
       </c>
       <c r="T17" t="n">
-        <v>1.687759941888719</v>
+        <v>1.687759941888718</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03084427078266076</v>
+        <v>0.03084427078266073</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2062892473394583</v>
+        <v>0.2062892473394581</v>
       </c>
       <c r="H18" t="n">
-        <v>1.992319836146874</v>
+        <v>1.992319836146872</v>
       </c>
       <c r="I18" t="n">
-        <v>7.102502594801527</v>
+        <v>7.102502594801519</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -32323,13 +32323,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>52.2689904333355</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>53.65239507887073</v>
       </c>
       <c r="O18" t="n">
-        <v>49.08145965098068</v>
+        <v>49.08145965098063</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32338,16 +32338,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.80802888305865</v>
+        <v>12.80802888305864</v>
       </c>
       <c r="S18" t="n">
-        <v>3.831732291590375</v>
+        <v>3.831732291590371</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8314904311621146</v>
+        <v>0.8314904311621137</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0135716610091749</v>
+        <v>0.01357166100917488</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1729459752644581</v>
+        <v>0.172945975264458</v>
       </c>
       <c r="H19" t="n">
-        <v>1.537646943714911</v>
+        <v>1.537646943714909</v>
       </c>
       <c r="I19" t="n">
-        <v>5.200957147043888</v>
+        <v>5.200957147043883</v>
       </c>
       <c r="J19" t="n">
-        <v>12.22728045119719</v>
+        <v>12.22728045119718</v>
       </c>
       <c r="K19" t="n">
-        <v>20.0931778534525</v>
+        <v>20.09317785345247</v>
       </c>
       <c r="L19" t="n">
-        <v>25.71234981340863</v>
+        <v>25.7123498134086</v>
       </c>
       <c r="M19" t="n">
-        <v>27.11006774077319</v>
+        <v>27.11006774077316</v>
       </c>
       <c r="N19" t="n">
-        <v>26.46545092387842</v>
+        <v>26.46545092387839</v>
       </c>
       <c r="O19" t="n">
-        <v>24.44512748556178</v>
+        <v>24.44512748556176</v>
       </c>
       <c r="P19" t="n">
-        <v>20.91702959016682</v>
+        <v>20.9170295901668</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.48186707419022</v>
+        <v>14.4818670741902</v>
       </c>
       <c r="R19" t="n">
-        <v>7.776279942345544</v>
+        <v>7.776279942345535</v>
       </c>
       <c r="S19" t="n">
-        <v>3.013976678017874</v>
+        <v>3.013976678017871</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7389509852208664</v>
+        <v>0.7389509852208657</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009433416832606819</v>
+        <v>0.009433416832606808</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3855533847832596</v>
+        <v>0.3855533847832588</v>
       </c>
       <c r="H20" t="n">
-        <v>3.948548601911558</v>
+        <v>3.948548601911551</v>
       </c>
       <c r="I20" t="n">
-        <v>14.86404686685663</v>
+        <v>14.8640468668566</v>
       </c>
       <c r="J20" t="n">
-        <v>32.72336159174821</v>
+        <v>32.72336159174814</v>
       </c>
       <c r="K20" t="n">
-        <v>49.04383636962359</v>
+        <v>49.0438363696235</v>
       </c>
       <c r="L20" t="n">
-        <v>60.84321576918428</v>
+        <v>60.84321576918417</v>
       </c>
       <c r="M20" t="n">
-        <v>67.69980077582358</v>
+        <v>67.69980077582345</v>
       </c>
       <c r="N20" t="n">
-        <v>68.79525433033902</v>
+        <v>68.79525433033888</v>
       </c>
       <c r="O20" t="n">
-        <v>64.96140786040047</v>
+        <v>64.96140786040034</v>
       </c>
       <c r="P20" t="n">
-        <v>55.44305867356375</v>
+        <v>55.44305867356364</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.63542808101325</v>
+        <v>41.63542808101317</v>
       </c>
       <c r="R20" t="n">
-        <v>24.21901780689145</v>
+        <v>24.2190178068914</v>
       </c>
       <c r="S20" t="n">
-        <v>8.785797755748536</v>
+        <v>8.785797755748519</v>
       </c>
       <c r="T20" t="n">
-        <v>1.687759941888719</v>
+        <v>1.687759941888716</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03084427078266076</v>
+        <v>0.0308442707826607</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2062892473394583</v>
+        <v>0.2062892473394579</v>
       </c>
       <c r="H21" t="n">
-        <v>1.992319836146874</v>
+        <v>1.99231983614687</v>
       </c>
       <c r="I21" t="n">
-        <v>7.102502594801527</v>
+        <v>7.102502594801513</v>
       </c>
       <c r="J21" t="n">
-        <v>19.48980998657576</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>33.31118955831946</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>44.7910052172802</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>52.26899043333545</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>53.65239507887068</v>
       </c>
       <c r="O21" t="n">
-        <v>49.08145965098068</v>
+        <v>49.08145965098059</v>
       </c>
       <c r="P21" t="n">
-        <v>39.39219846783043</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.33264146740174</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.80802888305865</v>
+        <v>12.80802888305863</v>
       </c>
       <c r="S21" t="n">
-        <v>3.831732291590375</v>
+        <v>3.831732291590368</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8314904311621146</v>
+        <v>0.831490431162113</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0135716610091749</v>
+        <v>0.01357166100917487</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1729459752644581</v>
+        <v>0.1729459752644578</v>
       </c>
       <c r="H22" t="n">
-        <v>1.537646943714911</v>
+        <v>1.537646943714908</v>
       </c>
       <c r="I22" t="n">
-        <v>5.200957147043888</v>
+        <v>5.200957147043878</v>
       </c>
       <c r="J22" t="n">
-        <v>12.22728045119719</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K22" t="n">
-        <v>20.0931778534525</v>
+        <v>20.09317785345246</v>
       </c>
       <c r="L22" t="n">
-        <v>25.71234981340863</v>
+        <v>25.71234981340858</v>
       </c>
       <c r="M22" t="n">
-        <v>27.11006774077319</v>
+        <v>27.11006774077314</v>
       </c>
       <c r="N22" t="n">
-        <v>26.46545092387842</v>
+        <v>26.46545092387836</v>
       </c>
       <c r="O22" t="n">
-        <v>24.44512748556178</v>
+        <v>24.44512748556174</v>
       </c>
       <c r="P22" t="n">
-        <v>20.91702959016682</v>
+        <v>20.91702959016678</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.48186707419022</v>
+        <v>14.48186707419019</v>
       </c>
       <c r="R22" t="n">
-        <v>7.776279942345544</v>
+        <v>7.776279942345528</v>
       </c>
       <c r="S22" t="n">
-        <v>3.013976678017874</v>
+        <v>3.013976678017868</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7389509852208664</v>
+        <v>0.738950985220865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009433416832606819</v>
+        <v>0.0094334168326068</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3855533847832591</v>
+        <v>0.3855533847832589</v>
       </c>
       <c r="H23" t="n">
-        <v>3.948548601911553</v>
+        <v>3.948548601911551</v>
       </c>
       <c r="I23" t="n">
-        <v>14.86404686685661</v>
+        <v>14.8640468668566</v>
       </c>
       <c r="J23" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174815</v>
       </c>
       <c r="K23" t="n">
-        <v>49.04383636962353</v>
+        <v>49.04383636962351</v>
       </c>
       <c r="L23" t="n">
-        <v>60.84321576918421</v>
+        <v>60.84321576918418</v>
       </c>
       <c r="M23" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582346</v>
       </c>
       <c r="N23" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033891</v>
       </c>
       <c r="O23" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040037</v>
       </c>
       <c r="P23" t="n">
-        <v>55.44305867356368</v>
+        <v>55.44305867356366</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.6354280810132</v>
+        <v>41.63542808101318</v>
       </c>
       <c r="R23" t="n">
-        <v>24.21901780689142</v>
+        <v>24.21901780689141</v>
       </c>
       <c r="S23" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748522</v>
       </c>
       <c r="T23" t="n">
         <v>1.687759941888717</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03084427078266072</v>
+        <v>0.03084427078266071</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2062892473394581</v>
+        <v>0.206289247339458</v>
       </c>
       <c r="H24" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146871</v>
       </c>
       <c r="I24" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801515</v>
       </c>
       <c r="J24" t="n">
-        <v>19.48980998657573</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>33.31118955831943</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>44.79100521728014</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>52.26899043333547</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>53.6523950788707</v>
       </c>
       <c r="O24" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098061</v>
       </c>
       <c r="P24" t="n">
-        <v>39.39219846783038</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.3326414674017</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.80802888305864</v>
+        <v>12.80802888305863</v>
       </c>
       <c r="S24" t="n">
-        <v>3.83173229159037</v>
+        <v>3.831732291590368</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.8314904311621133</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01357166100917488</v>
+        <v>0.01357166100917487</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1729459752644579</v>
+        <v>0.1729459752644578</v>
       </c>
       <c r="H25" t="n">
-        <v>1.537646943714909</v>
+        <v>1.537646943714908</v>
       </c>
       <c r="I25" t="n">
-        <v>5.200957147043882</v>
+        <v>5.20095714704388</v>
       </c>
       <c r="J25" t="n">
-        <v>12.22728045119718</v>
+        <v>12.22728045119717</v>
       </c>
       <c r="K25" t="n">
-        <v>20.09317785345247</v>
+        <v>20.09317785345246</v>
       </c>
       <c r="L25" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340858</v>
       </c>
       <c r="M25" t="n">
-        <v>27.11006774077316</v>
+        <v>27.11006774077315</v>
       </c>
       <c r="N25" t="n">
-        <v>26.46545092387839</v>
+        <v>26.46545092387838</v>
       </c>
       <c r="O25" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556174</v>
       </c>
       <c r="P25" t="n">
-        <v>20.91702959016679</v>
+        <v>20.91702959016678</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.4818670741902</v>
+        <v>14.48186707419019</v>
       </c>
       <c r="R25" t="n">
-        <v>7.776279942345534</v>
+        <v>7.77627994234553</v>
       </c>
       <c r="S25" t="n">
-        <v>3.01397667801787</v>
+        <v>3.013976678017869</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208652</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009433416832606806</v>
+        <v>0.009433416832606803</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3855533847832591</v>
+        <v>0.3855533847832593</v>
       </c>
       <c r="H26" t="n">
-        <v>3.948548601911553</v>
+        <v>3.948548601911555</v>
       </c>
       <c r="I26" t="n">
-        <v>14.86404686685661</v>
+        <v>14.86404686685662</v>
       </c>
       <c r="J26" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174818</v>
       </c>
       <c r="K26" t="n">
-        <v>49.04383636962353</v>
+        <v>49.04383636962356</v>
       </c>
       <c r="L26" t="n">
-        <v>60.84321576918421</v>
+        <v>60.84321576918424</v>
       </c>
       <c r="M26" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582352</v>
       </c>
       <c r="N26" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033896</v>
       </c>
       <c r="O26" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040043</v>
       </c>
       <c r="P26" t="n">
-        <v>55.44305867356368</v>
+        <v>55.4430586735637</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.6354280810132</v>
+        <v>41.63542808101322</v>
       </c>
       <c r="R26" t="n">
-        <v>24.21901780689142</v>
+        <v>24.21901780689143</v>
       </c>
       <c r="S26" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748529</v>
       </c>
       <c r="T26" t="n">
-        <v>1.687759941888717</v>
+        <v>1.687759941888718</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03084427078266072</v>
+        <v>0.03084427078266073</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2062892473394581</v>
+        <v>0.2062892473394582</v>
       </c>
       <c r="H27" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146873</v>
       </c>
       <c r="I27" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801521</v>
       </c>
       <c r="J27" t="n">
-        <v>19.48980998657573</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>33.31118955831943</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>44.79100521728014</v>
+        <v>44.79100521728017</v>
       </c>
       <c r="M27" t="n">
-        <v>41.1836358270557</v>
+        <v>52.26899043333551</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>53.65239507887075</v>
       </c>
       <c r="O27" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098065</v>
       </c>
       <c r="P27" t="n">
-        <v>39.39219846783038</v>
+        <v>39.3921984678304</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.3326414674017</v>
+        <v>26.33264146740172</v>
       </c>
       <c r="R27" t="n">
-        <v>12.80802888305864</v>
+        <v>12.80802888305865</v>
       </c>
       <c r="S27" t="n">
-        <v>3.83173229159037</v>
+        <v>3.831732291590372</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.831490431162114</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01357166100917488</v>
+        <v>0.01357166100917489</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1729459752644579</v>
+        <v>0.172945975264458</v>
       </c>
       <c r="H28" t="n">
-        <v>1.537646943714909</v>
+        <v>1.53764694371491</v>
       </c>
       <c r="I28" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043884</v>
       </c>
       <c r="J28" t="n">
         <v>12.22728045119718</v>
       </c>
       <c r="K28" t="n">
-        <v>20.09317785345247</v>
+        <v>20.09317785345248</v>
       </c>
       <c r="L28" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340861</v>
       </c>
       <c r="M28" t="n">
-        <v>27.11006774077316</v>
+        <v>27.11006774077318</v>
       </c>
       <c r="N28" t="n">
-        <v>26.46545092387839</v>
+        <v>26.4654509238784</v>
       </c>
       <c r="O28" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556177</v>
       </c>
       <c r="P28" t="n">
-        <v>20.91702959016679</v>
+        <v>20.91702959016681</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.4818670741902</v>
+        <v>14.48186707419021</v>
       </c>
       <c r="R28" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345537</v>
       </c>
       <c r="S28" t="n">
-        <v>3.01397667801787</v>
+        <v>3.013976678017872</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208659</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009433416832606806</v>
+        <v>0.009433416832606812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3855533847832591</v>
+        <v>0.3855533847832593</v>
       </c>
       <c r="H29" t="n">
-        <v>3.948548601911553</v>
+        <v>3.948548601911555</v>
       </c>
       <c r="I29" t="n">
-        <v>14.86404686685661</v>
+        <v>14.86404686685662</v>
       </c>
       <c r="J29" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174818</v>
       </c>
       <c r="K29" t="n">
-        <v>49.04383636962353</v>
+        <v>49.04383636962356</v>
       </c>
       <c r="L29" t="n">
-        <v>60.84321576918421</v>
+        <v>60.84321576918424</v>
       </c>
       <c r="M29" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582352</v>
       </c>
       <c r="N29" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033896</v>
       </c>
       <c r="O29" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040043</v>
       </c>
       <c r="P29" t="n">
-        <v>55.44305867356368</v>
+        <v>55.4430586735637</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.6354280810132</v>
+        <v>41.63542808101322</v>
       </c>
       <c r="R29" t="n">
-        <v>24.21901780689142</v>
+        <v>24.21901780689143</v>
       </c>
       <c r="S29" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748529</v>
       </c>
       <c r="T29" t="n">
-        <v>1.687759941888717</v>
+        <v>1.687759941888718</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03084427078266072</v>
+        <v>0.03084427078266073</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2062892473394581</v>
+        <v>0.2062892473394582</v>
       </c>
       <c r="H30" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146873</v>
       </c>
       <c r="I30" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801521</v>
       </c>
       <c r="J30" t="n">
-        <v>19.48980998657573</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>44.79100521728014</v>
+        <v>44.79100521728017</v>
       </c>
       <c r="M30" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333551</v>
       </c>
       <c r="N30" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887075</v>
       </c>
       <c r="O30" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098065</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39.3921984678304</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.3326414674017</v>
+        <v>26.33264146740172</v>
       </c>
       <c r="R30" t="n">
-        <v>12.80802888305864</v>
+        <v>12.80802888305865</v>
       </c>
       <c r="S30" t="n">
-        <v>3.83173229159037</v>
+        <v>3.831732291590372</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.831490431162114</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01357166100917488</v>
+        <v>0.01357166100917489</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1729459752644579</v>
+        <v>0.172945975264458</v>
       </c>
       <c r="H31" t="n">
-        <v>1.537646943714909</v>
+        <v>1.53764694371491</v>
       </c>
       <c r="I31" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043884</v>
       </c>
       <c r="J31" t="n">
         <v>12.22728045119718</v>
       </c>
       <c r="K31" t="n">
-        <v>20.09317785345247</v>
+        <v>20.09317785345248</v>
       </c>
       <c r="L31" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340861</v>
       </c>
       <c r="M31" t="n">
-        <v>27.11006774077316</v>
+        <v>27.11006774077318</v>
       </c>
       <c r="N31" t="n">
-        <v>26.46545092387839</v>
+        <v>26.4654509238784</v>
       </c>
       <c r="O31" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556177</v>
       </c>
       <c r="P31" t="n">
-        <v>20.91702959016679</v>
+        <v>20.91702959016681</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.4818670741902</v>
+        <v>14.48186707419021</v>
       </c>
       <c r="R31" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345537</v>
       </c>
       <c r="S31" t="n">
-        <v>3.01397667801787</v>
+        <v>3.013976678017872</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208659</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009433416832606806</v>
+        <v>0.009433416832606812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3855533847832591</v>
+        <v>0.3855533847832593</v>
       </c>
       <c r="H32" t="n">
-        <v>3.948548601911553</v>
+        <v>3.948548601911555</v>
       </c>
       <c r="I32" t="n">
-        <v>14.86404686685661</v>
+        <v>14.86404686685662</v>
       </c>
       <c r="J32" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174818</v>
       </c>
       <c r="K32" t="n">
-        <v>49.04383636962353</v>
+        <v>49.04383636962356</v>
       </c>
       <c r="L32" t="n">
-        <v>60.84321576918421</v>
+        <v>60.84321576918424</v>
       </c>
       <c r="M32" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582352</v>
       </c>
       <c r="N32" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033896</v>
       </c>
       <c r="O32" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040043</v>
       </c>
       <c r="P32" t="n">
-        <v>55.44305867356368</v>
+        <v>55.4430586735637</v>
       </c>
       <c r="Q32" t="n">
-        <v>41.6354280810132</v>
+        <v>41.63542808101322</v>
       </c>
       <c r="R32" t="n">
-        <v>24.21901780689142</v>
+        <v>24.21901780689143</v>
       </c>
       <c r="S32" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748529</v>
       </c>
       <c r="T32" t="n">
-        <v>1.687759941888717</v>
+        <v>1.687759941888718</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03084427078266072</v>
+        <v>0.03084427078266073</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2062892473394581</v>
+        <v>0.2062892473394582</v>
       </c>
       <c r="H33" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146873</v>
       </c>
       <c r="I33" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801521</v>
       </c>
       <c r="J33" t="n">
-        <v>19.48980998657573</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>33.31118955831943</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>44.79100521728014</v>
+        <v>44.79100521728017</v>
       </c>
       <c r="M33" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333551</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>53.65239507887075</v>
       </c>
       <c r="O33" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098065</v>
       </c>
       <c r="P33" t="n">
-        <v>39.39219846783038</v>
+        <v>39.3921984678304</v>
       </c>
       <c r="Q33" t="n">
-        <v>26.3326414674017</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>12.80802888305864</v>
+        <v>12.80802888305865</v>
       </c>
       <c r="S33" t="n">
-        <v>3.83173229159037</v>
+        <v>3.831732291590372</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.831490431162114</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01357166100917488</v>
+        <v>0.01357166100917489</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1729459752644579</v>
+        <v>0.172945975264458</v>
       </c>
       <c r="H34" t="n">
-        <v>1.537646943714909</v>
+        <v>1.53764694371491</v>
       </c>
       <c r="I34" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043884</v>
       </c>
       <c r="J34" t="n">
         <v>12.22728045119718</v>
       </c>
       <c r="K34" t="n">
-        <v>20.09317785345247</v>
+        <v>20.09317785345248</v>
       </c>
       <c r="L34" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340861</v>
       </c>
       <c r="M34" t="n">
-        <v>27.11006774077316</v>
+        <v>27.11006774077318</v>
       </c>
       <c r="N34" t="n">
-        <v>26.46545092387839</v>
+        <v>26.4654509238784</v>
       </c>
       <c r="O34" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556177</v>
       </c>
       <c r="P34" t="n">
-        <v>20.91702959016679</v>
+        <v>20.91702959016681</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.4818670741902</v>
+        <v>14.48186707419021</v>
       </c>
       <c r="R34" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345537</v>
       </c>
       <c r="S34" t="n">
-        <v>3.01397667801787</v>
+        <v>3.013976678017872</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208659</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009433416832606806</v>
+        <v>0.009433416832606812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3855533847832591</v>
+        <v>0.3855533847832593</v>
       </c>
       <c r="H35" t="n">
-        <v>3.948548601911553</v>
+        <v>3.948548601911555</v>
       </c>
       <c r="I35" t="n">
-        <v>14.86404686685661</v>
+        <v>14.86404686685662</v>
       </c>
       <c r="J35" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174818</v>
       </c>
       <c r="K35" t="n">
-        <v>49.04383636962353</v>
+        <v>49.04383636962356</v>
       </c>
       <c r="L35" t="n">
-        <v>60.84321576918421</v>
+        <v>60.84321576918424</v>
       </c>
       <c r="M35" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582352</v>
       </c>
       <c r="N35" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033896</v>
       </c>
       <c r="O35" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040043</v>
       </c>
       <c r="P35" t="n">
-        <v>55.44305867356368</v>
+        <v>55.4430586735637</v>
       </c>
       <c r="Q35" t="n">
-        <v>41.6354280810132</v>
+        <v>41.63542808101322</v>
       </c>
       <c r="R35" t="n">
-        <v>24.21901780689142</v>
+        <v>24.21901780689143</v>
       </c>
       <c r="S35" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748529</v>
       </c>
       <c r="T35" t="n">
-        <v>1.687759941888717</v>
+        <v>1.687759941888718</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03084427078266072</v>
+        <v>0.03084427078266073</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2062892473394581</v>
+        <v>0.2062892473394582</v>
       </c>
       <c r="H36" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146873</v>
       </c>
       <c r="I36" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801521</v>
       </c>
       <c r="J36" t="n">
-        <v>19.48980998657573</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33745,31 +33745,31 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>52.26899043333549</v>
+        <v>50.88137611849197</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>53.65239507887075</v>
       </c>
       <c r="O36" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098065</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39.3921984678304</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>26.33264146740172</v>
       </c>
       <c r="R36" t="n">
-        <v>12.80802888305864</v>
+        <v>12.80802888305865</v>
       </c>
       <c r="S36" t="n">
-        <v>3.83173229159037</v>
+        <v>3.831732291590372</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.831490431162114</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01357166100917488</v>
+        <v>0.01357166100917489</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1729459752644579</v>
+        <v>0.172945975264458</v>
       </c>
       <c r="H37" t="n">
-        <v>1.537646943714909</v>
+        <v>1.53764694371491</v>
       </c>
       <c r="I37" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043884</v>
       </c>
       <c r="J37" t="n">
         <v>12.22728045119718</v>
       </c>
       <c r="K37" t="n">
-        <v>20.09317785345247</v>
+        <v>20.09317785345248</v>
       </c>
       <c r="L37" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340861</v>
       </c>
       <c r="M37" t="n">
-        <v>27.11006774077316</v>
+        <v>27.11006774077318</v>
       </c>
       <c r="N37" t="n">
-        <v>26.46545092387839</v>
+        <v>26.4654509238784</v>
       </c>
       <c r="O37" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556177</v>
       </c>
       <c r="P37" t="n">
-        <v>20.91702959016679</v>
+        <v>20.91702959016681</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.4818670741902</v>
+        <v>14.48186707419021</v>
       </c>
       <c r="R37" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345537</v>
       </c>
       <c r="S37" t="n">
-        <v>3.01397667801787</v>
+        <v>3.013976678017872</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208659</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009433416832606806</v>
+        <v>0.009433416832606812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3855533847832591</v>
+        <v>0.3855533847832593</v>
       </c>
       <c r="H38" t="n">
-        <v>3.948548601911553</v>
+        <v>3.948548601911555</v>
       </c>
       <c r="I38" t="n">
-        <v>14.86404686685661</v>
+        <v>14.86404686685662</v>
       </c>
       <c r="J38" t="n">
-        <v>32.72336159174817</v>
+        <v>32.72336159174818</v>
       </c>
       <c r="K38" t="n">
-        <v>49.04383636962353</v>
+        <v>49.04383636962356</v>
       </c>
       <c r="L38" t="n">
-        <v>60.84321576918421</v>
+        <v>60.84321576918424</v>
       </c>
       <c r="M38" t="n">
-        <v>67.69980077582349</v>
+        <v>67.69980077582352</v>
       </c>
       <c r="N38" t="n">
-        <v>68.79525433033893</v>
+        <v>68.79525433033896</v>
       </c>
       <c r="O38" t="n">
-        <v>64.9614078604004</v>
+        <v>64.96140786040043</v>
       </c>
       <c r="P38" t="n">
-        <v>55.44305867356368</v>
+        <v>55.4430586735637</v>
       </c>
       <c r="Q38" t="n">
-        <v>41.6354280810132</v>
+        <v>41.63542808101322</v>
       </c>
       <c r="R38" t="n">
-        <v>24.21901780689142</v>
+        <v>24.21901780689143</v>
       </c>
       <c r="S38" t="n">
-        <v>8.785797755748526</v>
+        <v>8.785797755748529</v>
       </c>
       <c r="T38" t="n">
-        <v>1.687759941888717</v>
+        <v>1.687759941888718</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03084427078266072</v>
+        <v>0.03084427078266073</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2062892473394581</v>
+        <v>0.2062892473394582</v>
       </c>
       <c r="H39" t="n">
-        <v>1.992319836146872</v>
+        <v>1.992319836146873</v>
       </c>
       <c r="I39" t="n">
-        <v>7.102502594801519</v>
+        <v>7.102502594801521</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>33.31118955831943</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>44.79100521728014</v>
+        <v>44.79100521728017</v>
       </c>
       <c r="M39" t="n">
-        <v>52.26899043333549</v>
+        <v>52.26899043333551</v>
       </c>
       <c r="N39" t="n">
-        <v>53.65239507887073</v>
+        <v>53.65239507887075</v>
       </c>
       <c r="O39" t="n">
-        <v>49.08145965098063</v>
+        <v>49.08145965098065</v>
       </c>
       <c r="P39" t="n">
-        <v>39.39219846783038</v>
+        <v>39.3921984678304</v>
       </c>
       <c r="Q39" t="n">
-        <v>26.3326414674017</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>12.80802888305864</v>
+        <v>12.80802888305865</v>
       </c>
       <c r="S39" t="n">
-        <v>3.83173229159037</v>
+        <v>3.831732291590372</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8314904311621136</v>
+        <v>0.831490431162114</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01357166100917488</v>
+        <v>0.01357166100917489</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1729459752644579</v>
+        <v>0.172945975264458</v>
       </c>
       <c r="H40" t="n">
-        <v>1.537646943714909</v>
+        <v>1.53764694371491</v>
       </c>
       <c r="I40" t="n">
-        <v>5.200957147043882</v>
+        <v>5.200957147043884</v>
       </c>
       <c r="J40" t="n">
         <v>12.22728045119718</v>
       </c>
       <c r="K40" t="n">
-        <v>20.09317785345247</v>
+        <v>20.09317785345248</v>
       </c>
       <c r="L40" t="n">
-        <v>25.7123498134086</v>
+        <v>25.71234981340861</v>
       </c>
       <c r="M40" t="n">
-        <v>27.11006774077316</v>
+        <v>27.11006774077318</v>
       </c>
       <c r="N40" t="n">
-        <v>26.46545092387839</v>
+        <v>26.4654509238784</v>
       </c>
       <c r="O40" t="n">
-        <v>24.44512748556176</v>
+        <v>24.44512748556177</v>
       </c>
       <c r="P40" t="n">
-        <v>20.91702959016679</v>
+        <v>20.91702959016681</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.4818670741902</v>
+        <v>14.48186707419021</v>
       </c>
       <c r="R40" t="n">
-        <v>7.776279942345534</v>
+        <v>7.776279942345537</v>
       </c>
       <c r="S40" t="n">
-        <v>3.01397667801787</v>
+        <v>3.013976678017872</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7389509852208656</v>
+        <v>0.7389509852208659</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009433416832606806</v>
+        <v>0.009433416832606812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,28 +34210,28 @@
         <v>7.102502594801519</v>
       </c>
       <c r="J42" t="n">
-        <v>19.48980998657574</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>44.79100521728015</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>52.2689904333355</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>53.65239507887073</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>49.08145965098063</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39.39219846783039</v>
       </c>
       <c r="Q42" t="n">
-        <v>26.33264146740171</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>12.80802888305864</v>
@@ -34380,7 +34380,7 @@
         <v>67.6998007758235</v>
       </c>
       <c r="N44" t="n">
-        <v>68.79525433033895</v>
+        <v>68.79525433033893</v>
       </c>
       <c r="O44" t="n">
         <v>64.96140786040041</v>
@@ -34450,10 +34450,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>33.31118955831943</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>44.79100521728015</v>
       </c>
       <c r="M45" t="n">
         <v>52.2689904333355</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34792,13 +34792,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>106.2899856427332</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35026,16 +35026,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>287.421139048872</v>
+        <v>463.3546486099329</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>260.9238737833207</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>458.3670037226927</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35491,10 +35491,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>113.4186852713692</v>
       </c>
       <c r="L12" t="n">
-        <v>414.3080205406293</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
         <v>542.2016707466955</v>
@@ -35503,13 +35503,13 @@
         <v>570.082340657782</v>
       </c>
       <c r="O12" t="n">
-        <v>438.4566050353249</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.6979240791131</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.37844828408753</v>
+        <v>58.37844828408754</v>
       </c>
       <c r="K13" t="n">
         <v>159.6446358708001</v>
@@ -35588,7 +35588,7 @@
         <v>190.1293926413472</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.9377331742017</v>
+        <v>81.93773317420171</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.35258426244053</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>265.119828508005</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>414.3080205406293</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
         <v>542.2016707466955</v>
       </c>
       <c r="N15" t="n">
-        <v>239.2940826310781</v>
+        <v>570.082340657782</v>
       </c>
       <c r="O15" t="n">
         <v>445.2430260996179</v>
       </c>
       <c r="P15" t="n">
-        <v>344.5395916756054</v>
+        <v>137.6759798784782</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.6979240791131</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.37844828408753</v>
+        <v>58.37844828408754</v>
       </c>
       <c r="K16" t="n">
         <v>159.6446358708001</v>
@@ -35825,7 +35825,7 @@
         <v>190.1293926413472</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.9377331742017</v>
+        <v>81.93773317420171</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>412.2425825216552</v>
       </c>
       <c r="M17" t="n">
-        <v>464.9110798193468</v>
+        <v>464.9110798193467</v>
       </c>
       <c r="N17" t="n">
         <v>450.9481418936882</v>
@@ -35901,7 +35901,7 @@
         <v>373.0468467218489</v>
       </c>
       <c r="P17" t="n">
-        <v>285.9045702453347</v>
+        <v>285.9045702453346</v>
       </c>
       <c r="Q17" t="n">
         <v>137.0215429158991</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.1213854084595</v>
+        <v>125.1999998962534</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>489.93268031336</v>
+        <v>542.2016707466955</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>570.082340657782</v>
       </c>
       <c r="O18" t="n">
         <v>445.2430260996179</v>
@@ -36050,7 +36050,7 @@
         <v>232.9434963717826</v>
       </c>
       <c r="M19" t="n">
-        <v>251.9032614984828</v>
+        <v>251.9032614984827</v>
       </c>
       <c r="N19" t="n">
         <v>251.6918119765361</v>
@@ -36059,10 +36059,10 @@
         <v>229.511190301946</v>
       </c>
       <c r="P19" t="n">
-        <v>190.1293926413472</v>
+        <v>190.1293926413471</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.93773317420171</v>
+        <v>81.9377331742017</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.4491638875115</v>
+        <v>105.4491638875114</v>
       </c>
       <c r="K20" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L20" t="n">
-        <v>412.2425825216552</v>
+        <v>412.2425825216551</v>
       </c>
       <c r="M20" t="n">
-        <v>464.9110798193468</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N20" t="n">
-        <v>450.9481418936882</v>
+        <v>450.9481418936881</v>
       </c>
       <c r="O20" t="n">
-        <v>373.0468467218489</v>
+        <v>373.0468467218488</v>
       </c>
       <c r="P20" t="n">
-        <v>285.9045702453347</v>
+        <v>285.9045702453346</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.0215429158991</v>
+        <v>137.021542915899</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>80.35258426244056</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>265.119828508005</v>
+        <v>64.33722562038888</v>
       </c>
       <c r="L21" t="n">
-        <v>414.3080205406293</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>265.0658077988618</v>
+        <v>542.2016707466955</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>570.0823406577819</v>
       </c>
       <c r="O21" t="n">
         <v>445.2430260996179</v>
       </c>
       <c r="P21" t="n">
-        <v>344.5395916756054</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.6979240791131</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.37844828408753</v>
+        <v>58.37844828408751</v>
       </c>
       <c r="K22" t="n">
         <v>159.6446358708001</v>
       </c>
       <c r="L22" t="n">
-        <v>232.9434963717826</v>
+        <v>232.9434963717832</v>
       </c>
       <c r="M22" t="n">
-        <v>251.9032614984828</v>
+        <v>251.9032614984827</v>
       </c>
       <c r="N22" t="n">
         <v>251.6918119765361</v>
@@ -36296,10 +36296,10 @@
         <v>229.511190301946</v>
       </c>
       <c r="P22" t="n">
-        <v>190.1293926413472</v>
+        <v>190.1293926413471</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.93773317420171</v>
+        <v>81.93773317420168</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>105.4491638875114</v>
       </c>
       <c r="K23" t="n">
-        <v>291.609868738091</v>
+        <v>291.6098687380909</v>
       </c>
       <c r="L23" t="n">
-        <v>412.2425825216552</v>
+        <v>412.2425825216551</v>
       </c>
       <c r="M23" t="n">
-        <v>464.9110798193467</v>
+        <v>464.9110798193466</v>
       </c>
       <c r="N23" t="n">
-        <v>450.9481418936882</v>
+        <v>450.9481418936881</v>
       </c>
       <c r="O23" t="n">
-        <v>373.0468467218489</v>
+        <v>373.0468467218488</v>
       </c>
       <c r="P23" t="n">
         <v>285.9045702453346</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.0215429158991</v>
+        <v>137.021542915899</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>265.119828508005</v>
+        <v>125.1999998962537</v>
       </c>
       <c r="L24" t="n">
-        <v>414.3080205406293</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>542.2016707466955</v>
       </c>
       <c r="N24" t="n">
-        <v>371.9156573268538</v>
+        <v>570.0823406577819</v>
       </c>
       <c r="O24" t="n">
         <v>445.2430260996179</v>
       </c>
       <c r="P24" t="n">
-        <v>344.5395916756054</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>185.6979240791131</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.37844828408752</v>
+        <v>58.37844828408751</v>
       </c>
       <c r="K25" t="n">
         <v>159.6446358708001</v>
@@ -36533,10 +36533,10 @@
         <v>229.511190301946</v>
       </c>
       <c r="P25" t="n">
-        <v>190.1293926413471</v>
+        <v>190.1293926413475</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.9377331742017</v>
+        <v>81.93773317420168</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>105.4491638875114</v>
+        <v>105.4491638875115</v>
       </c>
       <c r="K26" t="n">
         <v>291.609868738091</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>265.119828508005</v>
+        <v>14.68415474374113</v>
       </c>
       <c r="L27" t="n">
         <v>414.3080205406293</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1163161404157</v>
+        <v>542.2016707466955</v>
       </c>
       <c r="N27" t="n">
-        <v>516.4299455789112</v>
+        <v>570.082340657782</v>
       </c>
       <c r="O27" t="n">
         <v>445.2430260996179</v>
@@ -36694,7 +36694,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>185.6979240791131</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.37844828408755</v>
+        <v>58.37844828408753</v>
       </c>
       <c r="K28" t="n">
         <v>159.6446358708001</v>
@@ -36761,19 +36761,19 @@
         <v>232.9434963717826</v>
       </c>
       <c r="M28" t="n">
-        <v>251.9032614984828</v>
+        <v>251.9032614984827</v>
       </c>
       <c r="N28" t="n">
         <v>251.6918119765361</v>
       </c>
       <c r="O28" t="n">
-        <v>229.5111903019461</v>
+        <v>229.511190301946</v>
       </c>
       <c r="P28" t="n">
         <v>190.1293926413472</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.93773317420172</v>
+        <v>81.9377331742017</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>80.35258426244053</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>159.421693028244</v>
+        <v>14.68415474374113</v>
       </c>
       <c r="L30" t="n">
         <v>414.3080205406293</v>
@@ -36928,10 +36928,10 @@
         <v>445.2430260996179</v>
       </c>
       <c r="P30" t="n">
-        <v>305.147393207775</v>
+        <v>344.5395916756054</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>185.6979240791131</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.37844828408755</v>
+        <v>58.37844828408753</v>
       </c>
       <c r="K31" t="n">
         <v>159.6446358708001</v>
@@ -36998,19 +36998,19 @@
         <v>232.9434963717826</v>
       </c>
       <c r="M31" t="n">
-        <v>251.9032614984828</v>
+        <v>251.9032614984827</v>
       </c>
       <c r="N31" t="n">
         <v>251.6918119765361</v>
       </c>
       <c r="O31" t="n">
-        <v>229.5111903019461</v>
+        <v>229.511190301946</v>
       </c>
       <c r="P31" t="n">
         <v>190.1293926413472</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.93773317420172</v>
+        <v>81.9377331742017</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>105.4491638875114</v>
+        <v>105.4491638875115</v>
       </c>
       <c r="K32" t="n">
-        <v>291.6098687380911</v>
+        <v>291.609868738091</v>
       </c>
       <c r="L32" t="n">
         <v>412.2425825216552</v>
@@ -37086,7 +37086,7 @@
         <v>373.0468467218489</v>
       </c>
       <c r="P32" t="n">
-        <v>285.9045702453346</v>
+        <v>285.9045702453345</v>
       </c>
       <c r="Q32" t="n">
         <v>137.0215429158991</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>80.35258426244053</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>265.119828508005</v>
+        <v>200.3820788228542</v>
       </c>
       <c r="L33" t="n">
         <v>414.3080205406293</v>
@@ -37159,7 +37159,7 @@
         <v>542.2016707466955</v>
       </c>
       <c r="N33" t="n">
-        <v>424.9920067101906</v>
+        <v>570.082340657782</v>
       </c>
       <c r="O33" t="n">
         <v>445.2430260996179</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.37844828408753</v>
+        <v>58.37844828408754</v>
       </c>
       <c r="K34" t="n">
-        <v>159.6446358708001</v>
+        <v>159.6446358708002</v>
       </c>
       <c r="L34" t="n">
         <v>232.9434963717826</v>
       </c>
       <c r="M34" t="n">
-        <v>251.9032614984827</v>
+        <v>251.9032614984828</v>
       </c>
       <c r="N34" t="n">
         <v>251.6918119765361</v>
@@ -37244,7 +37244,7 @@
         <v>229.511190301946</v>
       </c>
       <c r="P34" t="n">
-        <v>190.1293926413472</v>
+        <v>190.1293926413471</v>
       </c>
       <c r="Q34" t="n">
         <v>81.93773317420171</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>105.4491638875114</v>
+        <v>105.4491638875115</v>
       </c>
       <c r="K35" t="n">
         <v>291.609868738091</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
-        <v>178.8523949751244</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
-        <v>542.2016707466955</v>
+        <v>540.814056431852</v>
       </c>
       <c r="N36" t="n">
-        <v>516.4299455789112</v>
+        <v>570.082340657782</v>
       </c>
       <c r="O36" t="n">
         <v>445.2430260996179</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>344.5395916756054</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117113</v>
+        <v>185.6979240791131</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.37844828408753</v>
+        <v>58.37844828408754</v>
       </c>
       <c r="K37" t="n">
         <v>159.6446358708001</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>105.4491638875114</v>
+        <v>105.4491638875115</v>
       </c>
       <c r="K38" t="n">
         <v>291.609868738091</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>200.3820788228542</v>
       </c>
       <c r="L39" t="n">
         <v>414.3080205406293</v>
@@ -37642,7 +37642,7 @@
         <v>344.5395916756054</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.5193045469895</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.37844828408753</v>
+        <v>58.37844828408754</v>
       </c>
       <c r="K40" t="n">
-        <v>159.6446358708001</v>
+        <v>159.6446358708003</v>
       </c>
       <c r="L40" t="n">
         <v>232.9434963717826</v>
       </c>
       <c r="M40" t="n">
-        <v>251.9032614984827</v>
+        <v>251.9032614984828</v>
       </c>
       <c r="N40" t="n">
         <v>251.6918119765361</v>
@@ -37721,7 +37721,7 @@
         <v>190.1293926413472</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.93773317420202</v>
+        <v>81.93773317420171</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>80.35258426244053</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496855</v>
+        <v>200.3820788228542</v>
       </c>
       <c r="L42" t="n">
-        <v>369.5170153233491</v>
+        <v>414.3080205406293</v>
       </c>
       <c r="M42" t="n">
-        <v>489.93268031336</v>
+        <v>542.2016707466955</v>
       </c>
       <c r="N42" t="n">
-        <v>458.138925958824</v>
+        <v>570.082340657782</v>
       </c>
       <c r="O42" t="n">
-        <v>396.1615664486372</v>
+        <v>445.2430260996179</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>344.5395916756054</v>
       </c>
       <c r="Q42" t="n">
-        <v>185.6979240791131</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>373.0468467218489</v>
       </c>
       <c r="P44" t="n">
-        <v>285.9045702453345</v>
+        <v>285.9045702453346</v>
       </c>
       <c r="Q44" t="n">
         <v>137.0215429158991</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>59.4751599610215</v>
+        <v>14.68415474374135</v>
       </c>
       <c r="L45" t="n">
-        <v>369.5170153233491</v>
+        <v>414.3080205406293</v>
       </c>
       <c r="M45" t="n">
         <v>542.2016707466955</v>
